--- a/data_month/zb/邮电通信/软件业务收入.xlsx
+++ b/data_month/zb/邮电通信/软件业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,2282 +494,3258 @@
           <t>软件产品收入_累计增长</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>信息安全收入</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>信息技术服务收入</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>嵌入式系统软件收入</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>软件业务出口</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>软件业务收入</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>软件产品收入</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>23759.164</v>
+        <v>3585.117459</v>
       </c>
       <c r="E2" t="n">
-        <v>16.2</v>
+        <v>14.7</v>
       </c>
       <c r="F2" t="n">
-        <v>6944.8213</v>
+        <v>1204.477911</v>
       </c>
       <c r="G2" t="n">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>406.8431</v>
+        <v>75.422512</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>44209.0522</v>
+        <v>6925.341584</v>
       </c>
       <c r="K2" t="n">
-        <v>13.9</v>
+        <v>12.6</v>
       </c>
       <c r="L2" t="n">
-        <v>13505.0668</v>
+        <v>2135.746214</v>
       </c>
       <c r="M2" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>3585.117459</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1204.477911</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>75.422512</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6925.341584</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2135.746214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>26405.9397</v>
+        <v>6061.9432</v>
       </c>
       <c r="E3" t="n">
-        <v>16.9</v>
+        <v>15.6</v>
       </c>
       <c r="F3" t="n">
-        <v>7631.0568</v>
+        <v>1827.2862</v>
       </c>
       <c r="G3" t="n">
-        <v>10.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>447.6234</v>
+        <v>113.8918</v>
       </c>
       <c r="I3" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>49020.3231</v>
+        <v>11383.1157</v>
       </c>
       <c r="K3" t="n">
-        <v>14.5</v>
+        <v>12.9</v>
       </c>
       <c r="L3" t="n">
-        <v>14983.3265</v>
+        <v>3493.8863</v>
       </c>
       <c r="M3" t="n">
-        <v>12.6</v>
+        <v>10.3</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>2476.825741</v>
+      </c>
+      <c r="P3" t="n">
+        <v>622.8082890000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>38.46928800000001</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4457.774116000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1358.140086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>29318.0507</v>
+        <v>8440.6083</v>
       </c>
       <c r="E4" t="n">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="F4" t="n">
-        <v>8478.462</v>
+        <v>2523.4619</v>
       </c>
       <c r="G4" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>537.8232</v>
+        <v>152.893477</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="n">
-        <v>55037.3047</v>
+        <v>15752.8918</v>
       </c>
       <c r="K4" t="n">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="L4" t="n">
-        <v>17240.7918</v>
+        <v>4788.8214</v>
       </c>
       <c r="M4" t="n">
-        <v>11.9</v>
+        <v>10.9</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>2378.6651</v>
+      </c>
+      <c r="P4" t="n">
+        <v>696.1756999999998</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>39.00167699999999</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4369.776099999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1294.9351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>3585.117459</v>
+        <v>10960.40268</v>
       </c>
       <c r="E5" t="n">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="F5" t="n">
-        <v>1204.477911</v>
+        <v>3166.180087</v>
       </c>
       <c r="G5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>75.422512</v>
+        <v>191.49218</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>-0.7</v>
       </c>
       <c r="J5" t="n">
-        <v>6925.341584</v>
+        <v>20306.76622</v>
       </c>
       <c r="K5" t="n">
-        <v>12.6</v>
+        <v>13.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2135.746214</v>
+        <v>6180.183457</v>
       </c>
       <c r="M5" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>2519.794379999999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>642.7181870000004</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>38.598703</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4553.874420000002</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1391.362057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>6061.9432</v>
+        <v>13745.2448</v>
       </c>
       <c r="E6" t="n">
-        <v>15.6</v>
+        <v>15.73</v>
       </c>
       <c r="F6" t="n">
-        <v>1827.2862</v>
+        <v>3957.2134</v>
       </c>
       <c r="G6" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="H6" t="n">
-        <v>113.8918</v>
+        <v>233.4444</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>-0.73</v>
       </c>
       <c r="J6" t="n">
-        <v>11383.1157</v>
+        <v>25583.8118</v>
       </c>
       <c r="K6" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="L6" t="n">
-        <v>3493.8863</v>
+        <v>7881.3534</v>
       </c>
       <c r="M6" t="n">
-        <v>10.3</v>
+        <v>11.57</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>2784.842120000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>791.0333129999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>41.95222000000001</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5277.045579999998</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1701.169943</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>8440.6083</v>
+        <v>16047.137</v>
       </c>
       <c r="E7" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F7" t="n">
-        <v>2523.4619</v>
+        <v>4647.5833</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>152.893477</v>
+        <v>279.5319</v>
       </c>
       <c r="I7" t="n">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="J7" t="n">
-        <v>15752.8918</v>
+        <v>29913.9417</v>
       </c>
       <c r="K7" t="n">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4788.8214</v>
+        <v>9219.221299999999</v>
       </c>
       <c r="M7" t="n">
-        <v>10.9</v>
+        <v>11.6</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>2301.8922</v>
+      </c>
+      <c r="P7" t="n">
+        <v>690.3699000000001</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>46.08750000000001</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4330.1299</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1337.867899999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>10960.40268</v>
+        <v>18509.8168</v>
       </c>
       <c r="E8" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>3166.180087</v>
+        <v>5411.8311</v>
       </c>
       <c r="G8" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H8" t="n">
-        <v>191.49218</v>
+        <v>322.7453</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.7</v>
+        <v>0.6</v>
       </c>
       <c r="J8" t="n">
-        <v>20306.76622</v>
+        <v>34601.5082</v>
       </c>
       <c r="K8" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="L8" t="n">
-        <v>6180.183457</v>
+        <v>10679.8602</v>
       </c>
       <c r="M8" t="n">
-        <v>11.3</v>
+        <v>12</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>2462.6798</v>
+      </c>
+      <c r="P8" t="n">
+        <v>764.2478000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>43.21339999999998</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4687.566499999997</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1460.6389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>13745.2448</v>
+        <v>21342.611</v>
       </c>
       <c r="E9" t="n">
-        <v>15.73</v>
+        <v>16.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3957.2134</v>
+        <v>6272.3348</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="H9" t="n">
-        <v>233.4444</v>
+        <v>369.836</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.73</v>
+        <v>1.1</v>
       </c>
       <c r="J9" t="n">
-        <v>25583.8118</v>
+        <v>39827.3732</v>
       </c>
       <c r="K9" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="L9" t="n">
-        <v>7881.3534</v>
+        <v>12212.4272</v>
       </c>
       <c r="M9" t="n">
-        <v>11.57</v>
+        <v>12.3</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>2832.7942</v>
+      </c>
+      <c r="P9" t="n">
+        <v>860.5036999999993</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>47.09070000000003</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5225.865000000005</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1532.567000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>16047.137</v>
+        <v>23759.164</v>
       </c>
       <c r="E10" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="F10" t="n">
-        <v>4647.5833</v>
+        <v>6944.8213</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="H10" t="n">
-        <v>279.5319</v>
+        <v>406.8431</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>29913.9417</v>
+        <v>44209.0522</v>
       </c>
       <c r="K10" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="L10" t="n">
-        <v>9219.221299999999</v>
+        <v>13505.0668</v>
       </c>
       <c r="M10" t="n">
-        <v>11.6</v>
+        <v>12.2</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>2416.553</v>
+      </c>
+      <c r="P10" t="n">
+        <v>672.4865</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>37.00709999999998</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4381.678999999996</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1292.6396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>18509.8168</v>
+        <v>26405.9397</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>16.9</v>
       </c>
       <c r="F11" t="n">
-        <v>5411.8311</v>
+        <v>7631.0568</v>
       </c>
       <c r="G11" t="n">
         <v>10.1</v>
       </c>
       <c r="H11" t="n">
-        <v>322.7453</v>
+        <v>447.6234</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>34601.5082</v>
+        <v>49020.3231</v>
       </c>
       <c r="K11" t="n">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="L11" t="n">
-        <v>10679.8602</v>
+        <v>14983.3265</v>
       </c>
       <c r="M11" t="n">
-        <v>12</v>
+        <v>12.6</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>2646.775699999998</v>
+      </c>
+      <c r="P11" t="n">
+        <v>686.2355000000007</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>40.78030000000001</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4811.270900000003</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1478.259699999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>21342.611</v>
+        <v>29318.0507</v>
       </c>
       <c r="E12" t="n">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
       <c r="F12" t="n">
-        <v>6272.3348</v>
+        <v>8478.462</v>
       </c>
       <c r="G12" t="n">
-        <v>10.4</v>
+        <v>8.9</v>
       </c>
       <c r="H12" t="n">
-        <v>369.836</v>
+        <v>537.8232</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="J12" t="n">
-        <v>39827.3732</v>
+        <v>55037.3047</v>
       </c>
       <c r="K12" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="L12" t="n">
-        <v>12212.4272</v>
+        <v>17240.7918</v>
       </c>
       <c r="M12" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>2912.111000000001</v>
+      </c>
+      <c r="P12" t="n">
+        <v>847.4051999999992</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>90.19980000000004</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6016.981599999999</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2257.4653</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>28172.6536</v>
+        <v>4408.5073</v>
       </c>
       <c r="E13" t="n">
-        <v>18.8</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>7513.9701</v>
+        <v>1282.4248</v>
       </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H13" t="n">
-        <v>438.6812</v>
+        <v>76.6892</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="J13" t="n">
-        <v>50507.1372</v>
+        <v>8196.433499999999</v>
       </c>
       <c r="K13" t="n">
-        <v>15.1</v>
+        <v>13.3</v>
       </c>
       <c r="L13" t="n">
-        <v>14820.5133</v>
+        <v>2505.5014</v>
       </c>
       <c r="M13" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>4408.5073</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1282.4248</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>76.6892</v>
+      </c>
+      <c r="R13" t="n">
+        <v>8196.433499999999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2505.5014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>31379.2509</v>
+        <v>7100.629444</v>
       </c>
       <c r="E14" t="n">
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>8156.0625</v>
+        <v>1999.237661</v>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="H14" t="n">
-        <v>478.0219</v>
+        <v>125.738605</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>56092.4113</v>
+        <v>13098.88198</v>
       </c>
       <c r="K14" t="n">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="L14" t="n">
-        <v>16557.0978</v>
+        <v>3999.014879</v>
       </c>
       <c r="M14" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>2692.122144</v>
+      </c>
+      <c r="P14" t="n">
+        <v>716.8128609999999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>49.04940500000001</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4902.448480000001</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1493.513479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>34756.1337</v>
+        <v>10043.0204</v>
       </c>
       <c r="E15" t="n">
-        <v>17.62</v>
+        <v>16.9</v>
       </c>
       <c r="F15" t="n">
-        <v>8952.2101</v>
+        <v>2698.6169</v>
       </c>
       <c r="G15" t="n">
-        <v>6.75</v>
+        <v>7.1</v>
       </c>
       <c r="H15" t="n">
-        <v>554.5296</v>
+        <v>165.07</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>63060.9238</v>
+        <v>18188.8484</v>
       </c>
       <c r="K15" t="n">
-        <v>14.24</v>
+        <v>14.3</v>
       </c>
       <c r="L15" t="n">
-        <v>19352.5799</v>
+        <v>5447.211</v>
       </c>
       <c r="M15" t="n">
-        <v>12.1</v>
+        <v>13.3</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>2942.390955999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>699.3792390000001</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>39.33139499999999</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5089.966419999999</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1448.196121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>4408.5073</v>
+        <v>12987.5983</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>16.9</v>
       </c>
       <c r="F16" t="n">
-        <v>1282.4248</v>
+        <v>3413.4148</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="H16" t="n">
-        <v>76.6892</v>
+        <v>207.6723</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>8196.433499999999</v>
+        <v>23328.484</v>
       </c>
       <c r="K16" t="n">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2505.5014</v>
+        <v>6927.4708</v>
       </c>
       <c r="M16" t="n">
-        <v>11.7</v>
+        <v>12.6</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>2944.5779</v>
+      </c>
+      <c r="P16" t="n">
+        <v>714.7979</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>42.60230000000001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5139.635600000001</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1480.2598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>7100.629444</v>
+        <v>16186.0795</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>1999.237661</v>
+        <v>4240.2086</v>
       </c>
       <c r="G17" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
-        <v>125.738605</v>
+        <v>253.0245</v>
       </c>
       <c r="I17" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>13098.88198</v>
+        <v>29117.5286</v>
       </c>
       <c r="K17" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="L17" t="n">
-        <v>3999.014879</v>
+        <v>8691.240400000001</v>
       </c>
       <c r="M17" t="n">
-        <v>12.1</v>
+        <v>13.6</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>3198.4812</v>
+      </c>
+      <c r="P17" t="n">
+        <v>826.7937999999999</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>45.35219999999998</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5789.044600000001</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1763.769600000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>10043.0204</v>
+        <v>19199.1741</v>
       </c>
       <c r="E18" t="n">
-        <v>16.9</v>
+        <v>18.2</v>
       </c>
       <c r="F18" t="n">
-        <v>2698.6169</v>
+        <v>4962.7477</v>
       </c>
       <c r="G18" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="H18" t="n">
-        <v>165.07</v>
+        <v>302.0912</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>18188.8484</v>
+        <v>34456.595</v>
       </c>
       <c r="K18" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="L18" t="n">
-        <v>5447.211</v>
+        <v>10294.6731</v>
       </c>
       <c r="M18" t="n">
-        <v>13.3</v>
+        <v>12.9</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>3013.0946</v>
+      </c>
+      <c r="P18" t="n">
+        <v>722.5391</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>49.06670000000003</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5339.0664</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1603.432699999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>12987.5983</v>
+        <v>21942.4908</v>
       </c>
       <c r="E19" t="n">
-        <v>16.9</v>
+        <v>18.482165646</v>
       </c>
       <c r="F19" t="n">
-        <v>3413.4148</v>
+        <v>5790.6601</v>
       </c>
       <c r="G19" t="n">
-        <v>8.1</v>
+        <v>7.3119434857</v>
       </c>
       <c r="H19" t="n">
-        <v>207.6723</v>
+        <v>350.4574</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>3.420389499</v>
       </c>
       <c r="J19" t="n">
-        <v>23328.484</v>
+        <v>39453.1654</v>
       </c>
       <c r="K19" t="n">
-        <v>14.2</v>
+        <v>14.750796</v>
       </c>
       <c r="L19" t="n">
-        <v>6927.4708</v>
+        <v>11720.0144</v>
       </c>
       <c r="M19" t="n">
-        <v>12.6</v>
+        <v>11.983424179</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>2743.316699999999</v>
+      </c>
+      <c r="P19" t="n">
+        <v>827.9124000000002</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>48.36619999999999</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4996.570399999997</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1425.3413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>16186.0795</v>
+        <v>25037.0289</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="F20" t="n">
-        <v>4240.2086</v>
+        <v>6657.2103</v>
       </c>
       <c r="G20" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>253.0245</v>
+        <v>395.3928</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
-        <v>29117.5286</v>
+        <v>44989.7824</v>
       </c>
       <c r="K20" t="n">
-        <v>14.4</v>
+        <v>15.1</v>
       </c>
       <c r="L20" t="n">
-        <v>8691.240400000001</v>
+        <v>13295.5431</v>
       </c>
       <c r="M20" t="n">
-        <v>13.6</v>
+        <v>12.5</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>3094.538100000002</v>
+      </c>
+      <c r="P20" t="n">
+        <v>866.5501999999997</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>44.93540000000002</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5536.616999999998</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1575.528700000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>19199.1741</v>
+        <v>28172.6536</v>
       </c>
       <c r="E21" t="n">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="F21" t="n">
-        <v>4962.7477</v>
+        <v>7513.9701</v>
       </c>
       <c r="G21" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="H21" t="n">
-        <v>302.0912</v>
+        <v>438.6812</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>34456.595</v>
+        <v>50507.1372</v>
       </c>
       <c r="K21" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="L21" t="n">
-        <v>10294.6731</v>
+        <v>14820.5133</v>
       </c>
       <c r="M21" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>3135.6247</v>
+      </c>
+      <c r="P21" t="n">
+        <v>856.7597999999998</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>43.28839999999997</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5517.354800000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1524.9702</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>21942.4908</v>
+        <v>31379.2509</v>
       </c>
       <c r="E22" t="n">
-        <v>18.482165646</v>
+        <v>18.8</v>
       </c>
       <c r="F22" t="n">
-        <v>5790.6601</v>
+        <v>8156.0625</v>
       </c>
       <c r="G22" t="n">
-        <v>7.3119434857</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>350.4574</v>
+        <v>478.0219</v>
       </c>
       <c r="I22" t="n">
-        <v>3.420389499</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>39453.1654</v>
+        <v>56092.4113</v>
       </c>
       <c r="K22" t="n">
-        <v>14.750796</v>
+        <v>14.7</v>
       </c>
       <c r="L22" t="n">
-        <v>11720.0144</v>
+        <v>16557.0978</v>
       </c>
       <c r="M22" t="n">
-        <v>11.983424179</v>
+        <v>11.8</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>3206.597299999998</v>
+      </c>
+      <c r="P22" t="n">
+        <v>642.0924000000005</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>39.34070000000003</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5585.274100000002</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1736.584499999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>25037.0289</v>
+        <v>34756.1337</v>
       </c>
       <c r="E23" t="n">
-        <v>18.5</v>
+        <v>17.62</v>
       </c>
       <c r="F23" t="n">
-        <v>6657.2103</v>
+        <v>8952.2101</v>
       </c>
       <c r="G23" t="n">
-        <v>8.199999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="H23" t="n">
-        <v>395.3928</v>
+        <v>554.5296</v>
       </c>
       <c r="I23" t="n">
-        <v>2.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>44989.7824</v>
+        <v>63060.9238</v>
       </c>
       <c r="K23" t="n">
-        <v>15.1</v>
+        <v>14.24</v>
       </c>
       <c r="L23" t="n">
-        <v>13295.5431</v>
+        <v>19352.5799</v>
       </c>
       <c r="M23" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>3376.882799999999</v>
+      </c>
+      <c r="P23" t="n">
+        <v>796.1476000000002</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>76.50769999999994</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6968.512499999997</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2795.482100000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1027.5252</v>
+        <v>154.2301</v>
       </c>
       <c r="C24" t="n">
-        <v>10.3</v>
+        <v>13.13</v>
       </c>
       <c r="D24" t="n">
-        <v>34193.2098</v>
+        <v>5253.5938</v>
       </c>
       <c r="E24" t="n">
-        <v>17.77</v>
+        <v>16.82</v>
       </c>
       <c r="F24" t="n">
-        <v>6419.3284</v>
+        <v>1042.2228</v>
       </c>
       <c r="G24" t="n">
-        <v>7.73</v>
+        <v>4.92</v>
       </c>
       <c r="H24" t="n">
-        <v>385.9731</v>
+        <v>71.9175</v>
       </c>
       <c r="I24" t="n">
-        <v>3.03</v>
+        <v>-2.85</v>
       </c>
       <c r="J24" t="n">
-        <v>57929.1155</v>
+        <v>9074.4113</v>
       </c>
       <c r="K24" t="n">
-        <v>15.24</v>
+        <v>13.58</v>
       </c>
       <c r="L24" t="n">
-        <v>16289.052</v>
+        <v>2624.3645</v>
       </c>
       <c r="M24" t="n">
-        <v>13.56</v>
+        <v>11.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>154.2301</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5253.5938</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1042.2228</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>71.9175</v>
+      </c>
+      <c r="R24" t="n">
+        <v>9074.4113</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2624.3645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1163.901</v>
+        <v>207.2026</v>
       </c>
       <c r="C25" t="n">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="D25" t="n">
-        <v>38395.0742</v>
+        <v>8582.778399999999</v>
       </c>
       <c r="E25" t="n">
-        <v>17.37</v>
+        <v>16.69</v>
       </c>
       <c r="F25" t="n">
-        <v>7229.89</v>
+        <v>1695.2989</v>
       </c>
       <c r="G25" t="n">
-        <v>10.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>422.3056</v>
+        <v>123.3072</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>4.63</v>
       </c>
       <c r="J25" t="n">
-        <v>64615.9187</v>
+        <v>14754.9206</v>
       </c>
       <c r="K25" t="n">
-        <v>15.46</v>
+        <v>14.4</v>
       </c>
       <c r="L25" t="n">
-        <v>17827.0533</v>
+        <v>4269.6405</v>
       </c>
       <c r="M25" t="n">
-        <v>13.79</v>
+        <v>12.33</v>
+      </c>
+      <c r="N25" t="n">
+        <v>52.9725</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3329.1846</v>
+      </c>
+      <c r="P25" t="n">
+        <v>653.0761</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>51.38969999999999</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5680.5093</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1645.276</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1307.7317</v>
+        <v>290.5499</v>
       </c>
       <c r="C26" t="n">
-        <v>12.36</v>
+        <v>12.2</v>
       </c>
       <c r="D26" t="n">
-        <v>42573.9927</v>
+        <v>12074.6735</v>
       </c>
       <c r="E26" t="n">
-        <v>18.42</v>
+        <v>17.18</v>
       </c>
       <c r="F26" t="n">
-        <v>7819.492</v>
+        <v>2346.2979</v>
       </c>
       <c r="G26" t="n">
-        <v>7.84</v>
+        <v>7.87</v>
       </c>
       <c r="H26" t="n">
-        <v>505.2978</v>
+        <v>153.0625</v>
       </c>
       <c r="I26" t="n">
-        <v>2.56</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>71768.04489999999</v>
+        <v>20504.0717</v>
       </c>
       <c r="K26" t="n">
-        <v>15.39</v>
+        <v>14.8</v>
       </c>
       <c r="L26" t="n">
-        <v>20066.8283</v>
+        <v>5792.5503</v>
       </c>
       <c r="M26" t="n">
-        <v>12.53</v>
+        <v>13.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>83.34729999999999</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3491.895100000002</v>
+      </c>
+      <c r="P26" t="n">
+        <v>650.999</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>29.75530000000001</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5749.151100000001</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1522.909799999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>154.2301</v>
+        <v>393.8272</v>
       </c>
       <c r="C27" t="n">
-        <v>13.13</v>
+        <v>12.5</v>
       </c>
       <c r="D27" t="n">
-        <v>5253.5938</v>
+        <v>15420.7892</v>
       </c>
       <c r="E27" t="n">
-        <v>16.82</v>
+        <v>16.43</v>
       </c>
       <c r="F27" t="n">
-        <v>1042.2228</v>
+        <v>3041.7621</v>
       </c>
       <c r="G27" t="n">
-        <v>4.92</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>71.9175</v>
+        <v>187.4415</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.85</v>
+        <v>5.49</v>
       </c>
       <c r="J27" t="n">
-        <v>9074.4113</v>
+        <v>26298.3023</v>
       </c>
       <c r="K27" t="n">
-        <v>13.58</v>
+        <v>14.7</v>
       </c>
       <c r="L27" t="n">
-        <v>2624.3645</v>
+        <v>7441.9236</v>
       </c>
       <c r="M27" t="n">
-        <v>11.08</v>
+        <v>13.61</v>
+      </c>
+      <c r="N27" t="n">
+        <v>103.2773</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3346.115699999998</v>
+      </c>
+      <c r="P27" t="n">
+        <v>695.4641999999999</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>34.37899999999999</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5794.230599999999</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1649.3733</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>207.2026</v>
+        <v>500.9464</v>
       </c>
       <c r="C28" t="n">
-        <v>13.4</v>
+        <v>10.8</v>
       </c>
       <c r="D28" t="n">
-        <v>8582.778399999999</v>
+        <v>19386.2743</v>
       </c>
       <c r="E28" t="n">
-        <v>16.69</v>
+        <v>17.15</v>
       </c>
       <c r="F28" t="n">
-        <v>1695.2989</v>
+        <v>3765.3782</v>
       </c>
       <c r="G28" t="n">
-        <v>9.130000000000001</v>
+        <v>7.78</v>
       </c>
       <c r="H28" t="n">
-        <v>123.3072</v>
+        <v>228.7531</v>
       </c>
       <c r="I28" t="n">
-        <v>4.63</v>
+        <v>2.63</v>
       </c>
       <c r="J28" t="n">
-        <v>14754.9206</v>
+        <v>32835.7577</v>
       </c>
       <c r="K28" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="L28" t="n">
-        <v>4269.6405</v>
+        <v>9183.158600000001</v>
       </c>
       <c r="M28" t="n">
-        <v>12.33</v>
+        <v>14.09</v>
+      </c>
+      <c r="N28" t="n">
+        <v>107.1192</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3965.485100000002</v>
+      </c>
+      <c r="P28" t="n">
+        <v>723.6161000000002</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>41.3116</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6537.455400000003</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1741.235000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>290.5499</v>
+        <v>652.7452</v>
       </c>
       <c r="C29" t="n">
-        <v>12.2</v>
+        <v>10.3</v>
       </c>
       <c r="D29" t="n">
-        <v>12074.6735</v>
+        <v>22620.9971</v>
       </c>
       <c r="E29" t="n">
-        <v>17.18</v>
+        <v>17.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2346.2979</v>
+        <v>4409.5598</v>
       </c>
       <c r="G29" t="n">
-        <v>7.87</v>
+        <v>10.54</v>
       </c>
       <c r="H29" t="n">
-        <v>153.0625</v>
+        <v>264.0783</v>
       </c>
       <c r="I29" t="n">
-        <v>8.039999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="J29" t="n">
-        <v>20504.0717</v>
+        <v>38566.138</v>
       </c>
       <c r="K29" t="n">
-        <v>14.8</v>
+        <v>15.11303603</v>
       </c>
       <c r="L29" t="n">
-        <v>5792.5503</v>
+        <v>10882.8358</v>
       </c>
       <c r="M29" t="n">
-        <v>13.03</v>
+        <v>12.93</v>
+      </c>
+      <c r="N29" t="n">
+        <v>151.7988</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3234.7228</v>
+      </c>
+      <c r="P29" t="n">
+        <v>644.1815999999999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>35.32520000000002</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5730.380299999997</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1699.6772</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>393.8272</v>
+        <v>754.0753999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>12.5</v>
+        <v>11.53</v>
       </c>
       <c r="D30" t="n">
-        <v>15420.7892</v>
+        <v>26476.4217</v>
       </c>
       <c r="E30" t="n">
-        <v>16.43</v>
+        <v>16.9274232985</v>
       </c>
       <c r="F30" t="n">
-        <v>3041.7621</v>
+        <v>5025.3143</v>
       </c>
       <c r="G30" t="n">
-        <v>9.050000000000001</v>
+        <v>7.72</v>
       </c>
       <c r="H30" t="n">
-        <v>187.4415</v>
+        <v>310.9881</v>
       </c>
       <c r="I30" t="n">
-        <v>5.49</v>
+        <v>3.91</v>
       </c>
       <c r="J30" t="n">
-        <v>26298.3023</v>
+        <v>44865.264</v>
       </c>
       <c r="K30" t="n">
-        <v>14.7</v>
+        <v>14.9256436418</v>
       </c>
       <c r="L30" t="n">
-        <v>7441.9236</v>
+        <v>12609.4525</v>
       </c>
       <c r="M30" t="n">
-        <v>13.61</v>
+        <v>14.23</v>
+      </c>
+      <c r="N30" t="n">
+        <v>101.3302</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3855.424599999998</v>
+      </c>
+      <c r="P30" t="n">
+        <v>615.7545</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>46.90979999999996</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6299.126000000004</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1726.616699999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>500.9464</v>
+        <v>869.3984</v>
       </c>
       <c r="C31" t="n">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>19386.2743</v>
+        <v>30670.356</v>
       </c>
       <c r="E31" t="n">
-        <v>17.15</v>
+        <v>17.2</v>
       </c>
       <c r="F31" t="n">
-        <v>3765.3782</v>
+        <v>5712.6454</v>
       </c>
       <c r="G31" t="n">
-        <v>7.78</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>228.7531</v>
+        <v>344.3012</v>
       </c>
       <c r="I31" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
-        <v>32835.7577</v>
+        <v>51895.6847</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="L31" t="n">
-        <v>9183.158600000001</v>
+        <v>14643.2848</v>
       </c>
       <c r="M31" t="n">
-        <v>14.09</v>
+        <v>14.36</v>
+      </c>
+      <c r="N31" t="n">
+        <v>115.3230000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4193.934300000001</v>
+      </c>
+      <c r="P31" t="n">
+        <v>687.3311000000003</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>33.31310000000002</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7030.420699999995</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2033.8323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>652.7452</v>
+        <v>1027.5252</v>
       </c>
       <c r="C32" t="n">
         <v>10.3</v>
       </c>
       <c r="D32" t="n">
-        <v>22620.9971</v>
+        <v>34193.2098</v>
       </c>
       <c r="E32" t="n">
-        <v>17.3</v>
+        <v>17.77</v>
       </c>
       <c r="F32" t="n">
-        <v>4409.5598</v>
+        <v>6419.3284</v>
       </c>
       <c r="G32" t="n">
-        <v>10.54</v>
+        <v>7.73</v>
       </c>
       <c r="H32" t="n">
-        <v>264.0783</v>
+        <v>385.9731</v>
       </c>
       <c r="I32" t="n">
-        <v>1.91</v>
+        <v>3.03</v>
       </c>
       <c r="J32" t="n">
-        <v>38566.138</v>
+        <v>57929.1155</v>
       </c>
       <c r="K32" t="n">
-        <v>15.11303603</v>
+        <v>15.24</v>
       </c>
       <c r="L32" t="n">
-        <v>10882.8358</v>
+        <v>16289.052</v>
       </c>
       <c r="M32" t="n">
-        <v>12.93</v>
+        <v>13.56</v>
+      </c>
+      <c r="N32" t="n">
+        <v>158.1268</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3522.853799999997</v>
+      </c>
+      <c r="P32" t="n">
+        <v>706.683</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>41.67189999999999</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6033.430800000002</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1645.7672</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>754.0753999999999</v>
+        <v>1163.901</v>
       </c>
       <c r="C33" t="n">
-        <v>11.53</v>
+        <v>12.8</v>
       </c>
       <c r="D33" t="n">
-        <v>26476.4217</v>
+        <v>38395.0742</v>
       </c>
       <c r="E33" t="n">
-        <v>16.9274232985</v>
+        <v>17.37</v>
       </c>
       <c r="F33" t="n">
-        <v>5025.3143</v>
+        <v>7229.89</v>
       </c>
       <c r="G33" t="n">
-        <v>7.72</v>
+        <v>10.35</v>
       </c>
       <c r="H33" t="n">
-        <v>310.9881</v>
+        <v>422.3056</v>
       </c>
       <c r="I33" t="n">
-        <v>3.91</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>44865.264</v>
+        <v>64615.9187</v>
       </c>
       <c r="K33" t="n">
-        <v>14.9256436418</v>
+        <v>15.46</v>
       </c>
       <c r="L33" t="n">
-        <v>12609.4525</v>
+        <v>17827.0533</v>
       </c>
       <c r="M33" t="n">
-        <v>14.23</v>
+        <v>13.79</v>
+      </c>
+      <c r="N33" t="n">
+        <v>136.3758</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4201.864400000006</v>
+      </c>
+      <c r="P33" t="n">
+        <v>810.5616</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>36.33250000000004</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6686.803200000002</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1538.0013</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.3984</v>
+        <v>1307.7317</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>12.36</v>
       </c>
       <c r="D34" t="n">
-        <v>30670.356</v>
+        <v>42573.9927</v>
       </c>
       <c r="E34" t="n">
-        <v>17.2</v>
+        <v>18.42</v>
       </c>
       <c r="F34" t="n">
-        <v>5712.6454</v>
+        <v>7819.492</v>
       </c>
       <c r="G34" t="n">
-        <v>8.529999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="H34" t="n">
-        <v>344.3012</v>
+        <v>505.2978</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="J34" t="n">
-        <v>51895.6847</v>
+        <v>71768.04489999999</v>
       </c>
       <c r="K34" t="n">
-        <v>15.2</v>
+        <v>15.39</v>
       </c>
       <c r="L34" t="n">
-        <v>14643.2848</v>
+        <v>20066.8283</v>
       </c>
       <c r="M34" t="n">
-        <v>14.36</v>
+        <v>12.53</v>
+      </c>
+      <c r="N34" t="n">
+        <v>143.8307</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4178.9185</v>
+      </c>
+      <c r="P34" t="n">
+        <v>589.6019999999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>82.99219999999997</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7152.126199999992</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2239.775000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1168.0016</v>
+        <v>132.6282</v>
       </c>
       <c r="C35" t="n">
-        <v>9.039999999999999</v>
+        <v>-11.62</v>
       </c>
       <c r="D35" t="n">
-        <v>39449.4154</v>
+        <v>4824.0881</v>
       </c>
       <c r="E35" t="n">
-        <v>13.92</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>6856.293</v>
+        <v>862.0106</v>
       </c>
       <c r="G35" t="n">
-        <v>5.05</v>
+        <v>-21.95</v>
       </c>
       <c r="H35" t="n">
-        <v>373.7649</v>
+        <v>56.569</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.24</v>
+        <v>-18.89</v>
       </c>
       <c r="J35" t="n">
-        <v>65541.621</v>
+        <v>8007.6215</v>
       </c>
       <c r="K35" t="n">
-        <v>11.74</v>
+        <v>-11.57</v>
       </c>
       <c r="L35" t="n">
-        <v>18067.9109</v>
+        <v>2188.8944</v>
       </c>
       <c r="M35" t="n">
-        <v>9.98</v>
+        <v>-13.7</v>
+      </c>
+      <c r="N35" t="n">
+        <v>132.6282</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4824.0881</v>
+      </c>
+      <c r="P35" t="n">
+        <v>862.0106</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>56.569</v>
+      </c>
+      <c r="R35" t="n">
+        <v>8007.6215</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2188.8944</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1341.2441</v>
+        <v>172.9968</v>
       </c>
       <c r="C36" t="n">
-        <v>12.8</v>
+        <v>-14.31</v>
       </c>
       <c r="D36" t="n">
-        <v>44572.1488</v>
+        <v>8535.666300000001</v>
       </c>
       <c r="E36" t="n">
-        <v>14.92</v>
+        <v>-2.3</v>
       </c>
       <c r="F36" t="n">
-        <v>7478.9917</v>
+        <v>1464.0613</v>
       </c>
       <c r="G36" t="n">
-        <v>5.03</v>
+        <v>-14.74</v>
       </c>
       <c r="H36" t="n">
-        <v>416.6646</v>
+        <v>96.3596</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.79</v>
+        <v>-13.15</v>
       </c>
       <c r="J36" t="n">
-        <v>73141.626</v>
+        <v>14087.4989</v>
       </c>
       <c r="K36" t="n">
-        <v>12.45</v>
+        <v>-6.16</v>
       </c>
       <c r="L36" t="n">
-        <v>19749.2412</v>
+        <v>3914.7743</v>
       </c>
       <c r="M36" t="n">
-        <v>10.05</v>
+        <v>-10.16</v>
+      </c>
+      <c r="N36" t="n">
+        <v>40.36860000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>3711.578200000001</v>
+      </c>
+      <c r="P36" t="n">
+        <v>602.0507000000001</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>39.7906</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6079.8774</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1725.8799</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1498.2428</v>
+        <v>263.6262</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>49867.6844</v>
+        <v>12615.3659</v>
       </c>
       <c r="E37" t="n">
-        <v>15.2</v>
+        <v>3.25</v>
       </c>
       <c r="F37" t="n">
-        <v>7492.3115</v>
+        <v>2421.4394</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>-6.48</v>
       </c>
       <c r="H37" t="n">
-        <v>478.6626</v>
+        <v>123.642</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.4</v>
+        <v>-13.53</v>
       </c>
       <c r="J37" t="n">
-        <v>81615.9687</v>
+        <v>20829.5733</v>
       </c>
       <c r="K37" t="n">
-        <v>13.3</v>
+        <v>-0.11</v>
       </c>
       <c r="L37" t="n">
-        <v>22757.7298</v>
+        <v>5529.1417</v>
       </c>
       <c r="M37" t="n">
-        <v>10.1</v>
+        <v>-3.9</v>
+      </c>
+      <c r="N37" t="n">
+        <v>90.62939999999998</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4079.6996</v>
+      </c>
+      <c r="P37" t="n">
+        <v>957.3781000000001</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>27.2824</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6742.0744</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1614.3674</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>132.6282</v>
+        <v>383.6002</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.62</v>
+        <v>-6.39</v>
       </c>
       <c r="D38" t="n">
-        <v>4824.0881</v>
+        <v>16990.0507</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.359999999999999</v>
+        <v>7.31</v>
       </c>
       <c r="F38" t="n">
-        <v>862.0106</v>
+        <v>3079.3635</v>
       </c>
       <c r="G38" t="n">
-        <v>-21.95</v>
+        <v>-1.28</v>
       </c>
       <c r="H38" t="n">
-        <v>56.569</v>
+        <v>165.9572</v>
       </c>
       <c r="I38" t="n">
-        <v>-18.89</v>
+        <v>-9.33</v>
       </c>
       <c r="J38" t="n">
-        <v>8007.6215</v>
+        <v>27998.9876</v>
       </c>
       <c r="K38" t="n">
-        <v>-11.57</v>
+        <v>4.24</v>
       </c>
       <c r="L38" t="n">
-        <v>2188.8944</v>
+        <v>7545.973</v>
       </c>
       <c r="M38" t="n">
-        <v>-13.7</v>
+        <v>0.65</v>
+      </c>
+      <c r="N38" t="n">
+        <v>119.974</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4374.684799999999</v>
+      </c>
+      <c r="P38" t="n">
+        <v>657.9240999999997</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>42.3152</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7169.4143</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2016.8313</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>172.9968</v>
+        <v>519.6244</v>
       </c>
       <c r="C39" t="n">
-        <v>-14.31</v>
+        <v>-2.61</v>
       </c>
       <c r="D39" t="n">
-        <v>8535.666300000001</v>
+        <v>21582.8843</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.3</v>
+        <v>9.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1464.0613</v>
+        <v>3891.9746</v>
       </c>
       <c r="G39" t="n">
-        <v>-14.74</v>
+        <v>1.49</v>
       </c>
       <c r="H39" t="n">
-        <v>96.3596</v>
+        <v>222.6086</v>
       </c>
       <c r="I39" t="n">
-        <v>-13.15</v>
+        <v>-0.4</v>
       </c>
       <c r="J39" t="n">
-        <v>14087.4989</v>
+        <v>35609.307</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.16</v>
+        <v>6.66</v>
       </c>
       <c r="L39" t="n">
-        <v>3914.7743</v>
+        <v>9614.8235</v>
       </c>
       <c r="M39" t="n">
-        <v>-10.16</v>
+        <v>3.3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>136.0242000000001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4592.833600000002</v>
+      </c>
+      <c r="P39" t="n">
+        <v>812.6111000000001</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>56.6514</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7610.3194</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2068.8505</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.6262</v>
+        <v>667.3537</v>
       </c>
       <c r="C40" t="n">
-        <v>-9.970000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="D40" t="n">
-        <v>12615.3659</v>
+        <v>25502.991</v>
       </c>
       <c r="E40" t="n">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>2421.4394</v>
+        <v>4655.3883</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.48</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
-        <v>123.642</v>
+        <v>268.1002</v>
       </c>
       <c r="I40" t="n">
-        <v>-13.53</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="n">
-        <v>20829.5733</v>
+        <v>42448.2905</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.11</v>
+        <v>8.6</v>
       </c>
       <c r="L40" t="n">
-        <v>5529.1417</v>
+        <v>11622.5574</v>
       </c>
       <c r="M40" t="n">
-        <v>-3.9</v>
+        <v>6.3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>147.7293</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3920.1067</v>
+      </c>
+      <c r="P40" t="n">
+        <v>763.4136999999996</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>45.49159999999998</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6838.983500000002</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2007.733899999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.6002</v>
+        <v>771.7611000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.39</v>
+        <v>1.08</v>
       </c>
       <c r="D41" t="n">
-        <v>16990.0507</v>
+        <v>30095.4063</v>
       </c>
       <c r="E41" t="n">
-        <v>7.31</v>
+        <v>11.92</v>
       </c>
       <c r="F41" t="n">
-        <v>3079.3635</v>
+        <v>5417.7687</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.28</v>
+        <v>5.63</v>
       </c>
       <c r="H41" t="n">
-        <v>165.9572</v>
+        <v>296.999</v>
       </c>
       <c r="I41" t="n">
-        <v>-9.33</v>
+        <v>-1.34</v>
       </c>
       <c r="J41" t="n">
-        <v>27998.9876</v>
+        <v>49983.6564</v>
       </c>
       <c r="K41" t="n">
-        <v>4.24</v>
+        <v>10.03</v>
       </c>
       <c r="L41" t="n">
-        <v>7545.973</v>
+        <v>13698.7202</v>
       </c>
       <c r="M41" t="n">
-        <v>0.65</v>
+        <v>8.35</v>
+      </c>
+      <c r="N41" t="n">
+        <v>104.4074000000001</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4592.415299999997</v>
+      </c>
+      <c r="P41" t="n">
+        <v>762.3804</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>28.89880000000005</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7535.365899999997</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2076.1628</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>519.6244</v>
+        <v>958.5401000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.61</v>
+        <v>7.19</v>
       </c>
       <c r="D42" t="n">
-        <v>21582.8843</v>
+        <v>35161.975</v>
       </c>
       <c r="E42" t="n">
-        <v>9.5</v>
+        <v>13.21</v>
       </c>
       <c r="F42" t="n">
-        <v>3891.9746</v>
+        <v>6365.4868</v>
       </c>
       <c r="G42" t="n">
-        <v>1.49</v>
+        <v>10.18</v>
       </c>
       <c r="H42" t="n">
-        <v>222.6086</v>
+        <v>336.4354</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.4</v>
+        <v>-0.21</v>
       </c>
       <c r="J42" t="n">
-        <v>35609.307</v>
+        <v>58387.1277</v>
       </c>
       <c r="K42" t="n">
-        <v>6.66</v>
+        <v>11.27</v>
       </c>
       <c r="L42" t="n">
-        <v>9614.8235</v>
+        <v>15901.1256</v>
       </c>
       <c r="M42" t="n">
-        <v>3.3</v>
+        <v>7.86</v>
+      </c>
+      <c r="N42" t="n">
+        <v>186.779</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5066.5687</v>
+      </c>
+      <c r="P42" t="n">
+        <v>947.7181</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>39.43639999999999</v>
+      </c>
+      <c r="R42" t="n">
+        <v>8403.471299999997</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2202.4054</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>667.3537</v>
+        <v>1168.0016</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.2</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>25502.991</v>
+        <v>39449.4154</v>
       </c>
       <c r="E43" t="n">
-        <v>11</v>
+        <v>13.92</v>
       </c>
       <c r="F43" t="n">
-        <v>4655.3883</v>
+        <v>6856.293</v>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>5.05</v>
       </c>
       <c r="H43" t="n">
-        <v>268.1002</v>
+        <v>373.7649</v>
       </c>
       <c r="I43" t="n">
-        <v>2.4</v>
+        <v>-1.24</v>
       </c>
       <c r="J43" t="n">
-        <v>42448.2905</v>
+        <v>65541.621</v>
       </c>
       <c r="K43" t="n">
-        <v>8.6</v>
+        <v>11.74</v>
       </c>
       <c r="L43" t="n">
-        <v>11622.5574</v>
+        <v>18067.9109</v>
       </c>
       <c r="M43" t="n">
-        <v>6.3</v>
+        <v>9.98</v>
+      </c>
+      <c r="N43" t="n">
+        <v>209.4615</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4287.440399999999</v>
+      </c>
+      <c r="P43" t="n">
+        <v>490.8062</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>37.3295</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7154.493300000002</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2166.7853</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>771.7611000000001</v>
+        <v>1341.2441</v>
       </c>
       <c r="C44" t="n">
-        <v>1.08</v>
+        <v>12.8</v>
       </c>
       <c r="D44" t="n">
-        <v>30095.4063</v>
+        <v>44572.1488</v>
       </c>
       <c r="E44" t="n">
-        <v>11.92</v>
+        <v>14.92</v>
       </c>
       <c r="F44" t="n">
-        <v>5417.7687</v>
+        <v>7478.9917</v>
       </c>
       <c r="G44" t="n">
-        <v>5.63</v>
+        <v>5.03</v>
       </c>
       <c r="H44" t="n">
-        <v>296.999</v>
+        <v>416.6646</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.34</v>
+        <v>-0.79</v>
       </c>
       <c r="J44" t="n">
-        <v>49983.6564</v>
+        <v>73141.626</v>
       </c>
       <c r="K44" t="n">
-        <v>10.03</v>
+        <v>12.45</v>
       </c>
       <c r="L44" t="n">
-        <v>13698.7202</v>
+        <v>19749.2412</v>
       </c>
       <c r="M44" t="n">
-        <v>8.35</v>
+        <v>10.05</v>
+      </c>
+      <c r="N44" t="n">
+        <v>173.2424999999998</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5122.733400000005</v>
+      </c>
+      <c r="P44" t="n">
+        <v>622.6986999999999</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>42.8997</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7600.005000000005</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1681.330300000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>958.5401000000001</v>
+        <v>1498.2428</v>
       </c>
       <c r="C45" t="n">
-        <v>7.19</v>
+        <v>10</v>
       </c>
       <c r="D45" t="n">
-        <v>35161.975</v>
+        <v>49867.6844</v>
       </c>
       <c r="E45" t="n">
-        <v>13.21</v>
+        <v>15.2</v>
       </c>
       <c r="F45" t="n">
-        <v>6365.4868</v>
+        <v>7492.3115</v>
       </c>
       <c r="G45" t="n">
-        <v>10.18</v>
+        <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>336.4354</v>
+        <v>478.6626</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.21</v>
+        <v>-2.4</v>
       </c>
       <c r="J45" t="n">
-        <v>58387.1277</v>
+        <v>81615.9687</v>
       </c>
       <c r="K45" t="n">
-        <v>11.27</v>
+        <v>13.3</v>
       </c>
       <c r="L45" t="n">
-        <v>15901.1256</v>
+        <v>22757.7298</v>
       </c>
       <c r="M45" t="n">
-        <v>7.86</v>
+        <v>10.1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>156.9987000000001</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5295.535599999996</v>
+      </c>
+      <c r="P45" t="n">
+        <v>13.31980000000021</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>61.99799999999999</v>
+      </c>
+      <c r="R45" t="n">
+        <v>8474.342699999994</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3008.488600000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1487.369986</v>
+        <v>191.007</v>
       </c>
       <c r="C46" t="n">
-        <v>20.26</v>
+        <v>15.33</v>
       </c>
       <c r="D46" t="n">
-        <v>48860.120364</v>
+        <v>6241.5974</v>
       </c>
       <c r="E46" t="n">
-        <v>22.71</v>
+        <v>22.88</v>
       </c>
       <c r="F46" t="n">
-        <v>6641.747435</v>
+        <v>1039.8453</v>
       </c>
       <c r="G46" t="n">
-        <v>7.88</v>
+        <v>15.57</v>
       </c>
       <c r="H46" t="n">
-        <v>417.154558</v>
+        <v>69.6694</v>
       </c>
       <c r="I46" t="n">
-        <v>11.21</v>
+        <v>13.08</v>
       </c>
       <c r="J46" t="n">
-        <v>76814.434645</v>
+        <v>10062.596</v>
       </c>
       <c r="K46" t="n">
-        <v>19.18</v>
+        <v>21.28</v>
       </c>
       <c r="L46" t="n">
-        <v>19825.19686</v>
+        <v>2590.1463</v>
       </c>
       <c r="M46" t="n">
-        <v>14.97</v>
+        <v>20.36</v>
+      </c>
+      <c r="N46" t="n">
+        <v>191.007</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6241.5974</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1039.8453</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>69.6694</v>
+      </c>
+      <c r="R46" t="n">
+        <v>10062.596</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2590.1463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1648.137619</v>
+        <v>263.8582</v>
       </c>
       <c r="C47" t="n">
-        <v>19.01</v>
+        <v>24.77</v>
       </c>
       <c r="D47" t="n">
-        <v>54581.885342</v>
+        <v>11374.9225</v>
       </c>
       <c r="E47" t="n">
-        <v>21.23</v>
+        <v>29.2</v>
       </c>
       <c r="F47" t="n">
-        <v>7376.717511</v>
+        <v>1934.4607</v>
       </c>
       <c r="G47" t="n">
-        <v>8.83</v>
+        <v>20.7</v>
       </c>
       <c r="H47" t="n">
-        <v>462.192578</v>
+        <v>110.5099</v>
       </c>
       <c r="I47" t="n">
-        <v>11.27</v>
+        <v>15.39</v>
       </c>
       <c r="J47" t="n">
-        <v>85371.271051</v>
+        <v>19029.5518</v>
       </c>
       <c r="K47" t="n">
-        <v>18.29</v>
+        <v>26.54</v>
       </c>
       <c r="L47" t="n">
-        <v>21764.530579</v>
+        <v>5456.3102</v>
       </c>
       <c r="M47" t="n">
-        <v>14.62</v>
+        <v>23.43</v>
+      </c>
+      <c r="N47" t="n">
+        <v>72.85120000000001</v>
+      </c>
+      <c r="O47" t="n">
+        <v>5133.325100000001</v>
+      </c>
+      <c r="P47" t="n">
+        <v>894.6154000000001</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>40.84050000000001</v>
+      </c>
+      <c r="R47" t="n">
+        <v>8966.955800000002</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2866.1639</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1825.030308</v>
+        <v>384.4951</v>
       </c>
       <c r="C48" t="n">
-        <v>13.02</v>
+        <v>28.43</v>
       </c>
       <c r="D48" t="n">
-        <v>60311.952374</v>
+        <v>16222.2352</v>
       </c>
       <c r="E48" t="n">
-        <v>20.03</v>
+        <v>26.76</v>
       </c>
       <c r="F48" t="n">
-        <v>8424.510525</v>
+        <v>2289.3064</v>
       </c>
       <c r="G48" t="n">
-        <v>18.95</v>
+        <v>17.38</v>
       </c>
       <c r="H48" t="n">
-        <v>521.121543</v>
+        <v>148.6174</v>
       </c>
       <c r="I48" t="n">
-        <v>8.83</v>
+        <v>14.48</v>
       </c>
       <c r="J48" t="n">
-        <v>94994.43261600001</v>
+        <v>25718.5767</v>
       </c>
       <c r="K48" t="n">
-        <v>17.71</v>
+        <v>25.01</v>
       </c>
       <c r="L48" t="n">
-        <v>24432.939409</v>
+        <v>6822.5399</v>
       </c>
       <c r="M48" t="n">
-        <v>12.3</v>
+        <v>23.45</v>
+      </c>
+      <c r="N48" t="n">
+        <v>120.6369</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4847.312699999999</v>
+      </c>
+      <c r="P48" t="n">
+        <v>354.8456999999999</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>38.1075</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6689.0249</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1366.2297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>191.007</v>
+        <v>514.9802</v>
       </c>
       <c r="C49" t="n">
-        <v>15.33</v>
+        <v>27.59</v>
       </c>
       <c r="D49" t="n">
-        <v>6241.5974</v>
+        <v>21314.0522</v>
       </c>
       <c r="E49" t="n">
-        <v>22.88</v>
+        <v>24.03</v>
       </c>
       <c r="F49" t="n">
-        <v>1039.8453</v>
+        <v>2921.3322</v>
       </c>
       <c r="G49" t="n">
-        <v>15.57</v>
+        <v>14.41</v>
       </c>
       <c r="H49" t="n">
-        <v>69.6694</v>
+        <v>191.4689</v>
       </c>
       <c r="I49" t="n">
-        <v>13.08</v>
+        <v>10.14</v>
       </c>
       <c r="J49" t="n">
-        <v>10062.596</v>
+        <v>33892.750056</v>
       </c>
       <c r="K49" t="n">
-        <v>21.28</v>
+        <v>22.58</v>
       </c>
       <c r="L49" t="n">
-        <v>2590.1463</v>
+        <v>9142.3853</v>
       </c>
       <c r="M49" t="n">
-        <v>20.36</v>
+        <v>21.78</v>
+      </c>
+      <c r="N49" t="n">
+        <v>130.4851</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5091.816999999999</v>
+      </c>
+      <c r="P49" t="n">
+        <v>632.0257999999999</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>42.85149999999999</v>
+      </c>
+      <c r="R49" t="n">
+        <v>8174.173355999996</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2319.8454</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>263.8582</v>
+        <v>732.0322</v>
       </c>
       <c r="C50" t="n">
-        <v>24.77</v>
+        <v>25.96</v>
       </c>
       <c r="D50" t="n">
-        <v>11374.9225</v>
+        <v>28319.0359</v>
       </c>
       <c r="E50" t="n">
-        <v>29.2</v>
+        <v>25.99</v>
       </c>
       <c r="F50" t="n">
-        <v>1934.4607</v>
+        <v>3695.5659</v>
       </c>
       <c r="G50" t="n">
-        <v>20.7</v>
+        <v>12.78</v>
       </c>
       <c r="H50" t="n">
-        <v>110.5099</v>
+        <v>239.6816</v>
       </c>
       <c r="I50" t="n">
-        <v>15.39</v>
+        <v>12.16</v>
       </c>
       <c r="J50" t="n">
-        <v>19029.5518</v>
+        <v>44197.9526</v>
       </c>
       <c r="K50" t="n">
-        <v>26.54</v>
+        <v>23.22</v>
       </c>
       <c r="L50" t="n">
-        <v>5456.3102</v>
+        <v>11451.3186</v>
       </c>
       <c r="M50" t="n">
-        <v>23.43</v>
+        <v>20.12</v>
+      </c>
+      <c r="N50" t="n">
+        <v>217.052</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7004.983700000001</v>
+      </c>
+      <c r="P50" t="n">
+        <v>774.2337000000002</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>48.21270000000001</v>
+      </c>
+      <c r="R50" t="n">
+        <v>10305.202544</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2308.933300000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>384.4951</v>
+        <v>882.6008</v>
       </c>
       <c r="C51" t="n">
-        <v>28.43</v>
+        <v>21.86</v>
       </c>
       <c r="D51" t="n">
-        <v>16222.2352</v>
+        <v>32743.727</v>
       </c>
       <c r="E51" t="n">
-        <v>26.76</v>
+        <v>24.61</v>
       </c>
       <c r="F51" t="n">
-        <v>2289.3064</v>
+        <v>4412.5713</v>
       </c>
       <c r="G51" t="n">
-        <v>17.38</v>
+        <v>11.37</v>
       </c>
       <c r="H51" t="n">
-        <v>148.6174</v>
+        <v>290.254</v>
       </c>
       <c r="I51" t="n">
-        <v>14.48</v>
+        <v>10.86</v>
       </c>
       <c r="J51" t="n">
-        <v>25718.5767</v>
+        <v>51441.3523</v>
       </c>
       <c r="K51" t="n">
-        <v>25.01</v>
+        <v>21.42</v>
       </c>
       <c r="L51" t="n">
-        <v>6822.5399</v>
+        <v>13402.453</v>
       </c>
       <c r="M51" t="n">
-        <v>23.45</v>
+        <v>17.54</v>
+      </c>
+      <c r="N51" t="n">
+        <v>150.5686000000001</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4424.6911</v>
+      </c>
+      <c r="P51" t="n">
+        <v>717.0053999999996</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>50.57240000000002</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7243.399700000002</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1951.134399999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>514.9802</v>
+        <v>1035.1603</v>
       </c>
       <c r="C52" t="n">
-        <v>27.59</v>
+        <v>23.14</v>
       </c>
       <c r="D52" t="n">
-        <v>21314.0522</v>
+        <v>37950.9806</v>
       </c>
       <c r="E52" t="n">
-        <v>24.03</v>
+        <v>23.88</v>
       </c>
       <c r="F52" t="n">
-        <v>2921.3322</v>
+        <v>5142.399</v>
       </c>
       <c r="G52" t="n">
-        <v>14.41</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>191.4689</v>
+        <v>332.2764</v>
       </c>
       <c r="I52" t="n">
-        <v>10.14</v>
+        <v>10.87</v>
       </c>
       <c r="J52" t="n">
-        <v>33892.750056</v>
+        <v>59710.0483</v>
       </c>
       <c r="K52" t="n">
-        <v>22.58</v>
+        <v>20.76</v>
       </c>
       <c r="L52" t="n">
-        <v>9142.3853</v>
+        <v>15581.5082</v>
       </c>
       <c r="M52" t="n">
-        <v>21.78</v>
+        <v>17.32</v>
+      </c>
+      <c r="N52" t="n">
+        <v>152.5595</v>
+      </c>
+      <c r="O52" t="n">
+        <v>5207.253600000004</v>
+      </c>
+      <c r="P52" t="n">
+        <v>729.8277000000007</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>42.0224</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8268.696000000004</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2179.055200000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>732.0322</v>
+        <v>1226.7412</v>
       </c>
       <c r="C53" t="n">
-        <v>25.96</v>
+        <v>21.11</v>
       </c>
       <c r="D53" t="n">
-        <v>28319.0359</v>
+        <v>43979.6796</v>
       </c>
       <c r="E53" t="n">
-        <v>25.99</v>
+        <v>23.65</v>
       </c>
       <c r="F53" t="n">
-        <v>3695.5659</v>
+        <v>5849.7601</v>
       </c>
       <c r="G53" t="n">
-        <v>12.78</v>
+        <v>9.6</v>
       </c>
       <c r="H53" t="n">
-        <v>239.6816</v>
+        <v>378.6767</v>
       </c>
       <c r="I53" t="n">
-        <v>12.16</v>
+        <v>11.14</v>
       </c>
       <c r="J53" t="n">
-        <v>44197.9526</v>
+        <v>69007.2895</v>
       </c>
       <c r="K53" t="n">
-        <v>23.22</v>
+        <v>20.5</v>
       </c>
       <c r="L53" t="n">
-        <v>11451.3186</v>
+        <v>17951.1086</v>
       </c>
       <c r="M53" t="n">
-        <v>20.12</v>
+        <v>16.97</v>
+      </c>
+      <c r="N53" t="n">
+        <v>191.5808999999999</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6028.699000000001</v>
+      </c>
+      <c r="P53" t="n">
+        <v>707.3611000000001</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>46.40029999999996</v>
+      </c>
+      <c r="R53" t="n">
+        <v>9297.241199999997</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2369.600399999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>882.6008</v>
+        <v>1487.369986</v>
       </c>
       <c r="C54" t="n">
-        <v>21.86</v>
+        <v>20.26</v>
       </c>
       <c r="D54" t="n">
-        <v>32743.727</v>
+        <v>48860.120364</v>
       </c>
       <c r="E54" t="n">
-        <v>24.61</v>
+        <v>22.71</v>
       </c>
       <c r="F54" t="n">
-        <v>4412.5713</v>
+        <v>6641.747435</v>
       </c>
       <c r="G54" t="n">
-        <v>11.37</v>
+        <v>7.88</v>
       </c>
       <c r="H54" t="n">
-        <v>290.254</v>
+        <v>417.154558</v>
       </c>
       <c r="I54" t="n">
-        <v>10.86</v>
+        <v>11.21</v>
       </c>
       <c r="J54" t="n">
-        <v>51441.3523</v>
+        <v>76814.434645</v>
       </c>
       <c r="K54" t="n">
-        <v>21.42</v>
+        <v>19.18</v>
       </c>
       <c r="L54" t="n">
-        <v>13402.453</v>
+        <v>19825.19686</v>
       </c>
       <c r="M54" t="n">
-        <v>17.54</v>
+        <v>14.97</v>
+      </c>
+      <c r="N54" t="n">
+        <v>260.628786</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4880.440763999999</v>
+      </c>
+      <c r="P54" t="n">
+        <v>791.9873349999998</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>38.47785800000003</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7807.145145000002</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1874.08826</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1035.1603</v>
+        <v>1648.137619</v>
       </c>
       <c r="C55" t="n">
-        <v>23.14</v>
+        <v>19.01</v>
       </c>
       <c r="D55" t="n">
-        <v>37950.9806</v>
+        <v>54581.885342</v>
       </c>
       <c r="E55" t="n">
-        <v>23.88</v>
+        <v>21.23</v>
       </c>
       <c r="F55" t="n">
-        <v>5142.399</v>
+        <v>7376.717511</v>
       </c>
       <c r="G55" t="n">
-        <v>9.640000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="H55" t="n">
-        <v>332.2764</v>
+        <v>462.192578</v>
       </c>
       <c r="I55" t="n">
-        <v>10.87</v>
+        <v>11.27</v>
       </c>
       <c r="J55" t="n">
-        <v>59710.0483</v>
+        <v>85371.271051</v>
       </c>
       <c r="K55" t="n">
-        <v>20.76</v>
+        <v>18.29</v>
       </c>
       <c r="L55" t="n">
-        <v>15581.5082</v>
+        <v>21764.530579</v>
       </c>
       <c r="M55" t="n">
-        <v>17.32</v>
+        <v>14.62</v>
+      </c>
+      <c r="N55" t="n">
+        <v>160.7676330000002</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5721.764977999999</v>
+      </c>
+      <c r="P55" t="n">
+        <v>734.9700759999996</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>45.03802000000002</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8556.836406000002</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1939.333718999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1226.7412</v>
+        <v>1825.030308</v>
       </c>
       <c r="C56" t="n">
-        <v>21.11</v>
+        <v>13.02</v>
       </c>
       <c r="D56" t="n">
-        <v>43979.6796</v>
+        <v>60311.952374</v>
       </c>
       <c r="E56" t="n">
-        <v>23.65</v>
+        <v>20.03</v>
       </c>
       <c r="F56" t="n">
-        <v>5849.7601</v>
+        <v>8424.510525</v>
       </c>
       <c r="G56" t="n">
-        <v>9.6</v>
+        <v>18.95</v>
       </c>
       <c r="H56" t="n">
-        <v>378.6767</v>
+        <v>521.121543</v>
       </c>
       <c r="I56" t="n">
-        <v>11.14</v>
+        <v>8.83</v>
       </c>
       <c r="J56" t="n">
-        <v>69007.2895</v>
+        <v>94994.43261600001</v>
       </c>
       <c r="K56" t="n">
-        <v>20.5</v>
+        <v>17.71</v>
       </c>
       <c r="L56" t="n">
-        <v>17951.1086</v>
+        <v>24432.939409</v>
       </c>
       <c r="M56" t="n">
-        <v>16.97</v>
+        <v>12.3</v>
+      </c>
+      <c r="N56" t="n">
+        <v>176.892689</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5730.067031999999</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1047.793014</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>58.92896499999995</v>
+      </c>
+      <c r="R56" t="n">
+        <v>9623.161565000002</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2668.40883</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/邮电通信/软件业务收入.xlsx
+++ b/data_month/zb/邮电通信/软件业务收入.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,3258 +494,2970 @@
           <t>软件产品收入_累计增长</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>信息安全收入</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>信息技术服务收入</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>嵌入式系统软件收入</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>软件业务出口</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>软件业务收入</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>软件产品收入</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3585.117459</v>
+        <v>23759.164</v>
       </c>
       <c r="E2" t="n">
-        <v>14.7</v>
+        <v>16.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1204.477911</v>
+        <v>6944.8213</v>
       </c>
       <c r="G2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H2" t="n">
-        <v>75.422512</v>
+        <v>406.8431</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>6925.341584</v>
+        <v>44209.0522</v>
       </c>
       <c r="K2" t="n">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="L2" t="n">
-        <v>2135.746214</v>
+        <v>13505.0668</v>
       </c>
       <c r="M2" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
-        <v>3585.117459</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1204.477911</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>75.422512</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6925.341584</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2135.746214</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>6061.9432</v>
+        <v>26405.9397</v>
       </c>
       <c r="E3" t="n">
-        <v>15.6</v>
+        <v>16.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1827.2862</v>
+        <v>7631.0568</v>
       </c>
       <c r="G3" t="n">
-        <v>9.199999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="H3" t="n">
-        <v>113.8918</v>
+        <v>447.6234</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="J3" t="n">
-        <v>11383.1157</v>
+        <v>49020.3231</v>
       </c>
       <c r="K3" t="n">
-        <v>12.9</v>
+        <v>14.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3493.8863</v>
+        <v>14983.3265</v>
       </c>
       <c r="M3" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>2476.825741</v>
-      </c>
-      <c r="P3" t="n">
-        <v>622.8082890000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>38.46928800000001</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4457.774116000001</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1358.140086</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>8440.6083</v>
+        <v>29318.0507</v>
       </c>
       <c r="E4" t="n">
-        <v>15.8</v>
+        <v>16.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2523.4619</v>
+        <v>8478.462</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="H4" t="n">
-        <v>152.893477</v>
+        <v>537.8232</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>15752.8918</v>
+        <v>55037.3047</v>
       </c>
       <c r="K4" t="n">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="L4" t="n">
-        <v>4788.8214</v>
+        <v>17240.7918</v>
       </c>
       <c r="M4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>2378.6651</v>
-      </c>
-      <c r="P4" t="n">
-        <v>696.1756999999998</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>39.00167699999999</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4369.776099999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1294.9351</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>10960.40268</v>
+        <v>3585.117459</v>
       </c>
       <c r="E5" t="n">
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="F5" t="n">
-        <v>3166.180087</v>
+        <v>1204.477911</v>
       </c>
       <c r="G5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>191.49218</v>
+        <v>75.422512</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.7</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>20306.76622</v>
+        <v>6925.341584</v>
       </c>
       <c r="K5" t="n">
-        <v>13.4</v>
+        <v>12.6</v>
       </c>
       <c r="L5" t="n">
-        <v>6180.183457</v>
+        <v>2135.746214</v>
       </c>
       <c r="M5" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>2519.794379999999</v>
-      </c>
-      <c r="P5" t="n">
-        <v>642.7181870000004</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>38.598703</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4553.874420000002</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1391.362057</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>13745.2448</v>
+        <v>6061.9432</v>
       </c>
       <c r="E6" t="n">
-        <v>15.73</v>
+        <v>15.6</v>
       </c>
       <c r="F6" t="n">
-        <v>3957.2134</v>
+        <v>1827.2862</v>
       </c>
       <c r="G6" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>233.4444</v>
+        <v>113.8918</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.73</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>25583.8118</v>
+        <v>11383.1157</v>
       </c>
       <c r="K6" t="n">
-        <v>13.6</v>
+        <v>12.9</v>
       </c>
       <c r="L6" t="n">
-        <v>7881.3534</v>
+        <v>3493.8863</v>
       </c>
       <c r="M6" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>2784.842120000001</v>
-      </c>
-      <c r="P6" t="n">
-        <v>791.0333129999999</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>41.95222000000001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5277.045579999998</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1701.169943</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>16047.137</v>
+        <v>8440.6083</v>
       </c>
       <c r="E7" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F7" t="n">
-        <v>4647.5833</v>
+        <v>2523.4619</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="n">
-        <v>279.5319</v>
+        <v>152.893477</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="n">
-        <v>29913.9417</v>
+        <v>15752.8918</v>
       </c>
       <c r="K7" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="L7" t="n">
-        <v>9219.221299999999</v>
+        <v>4788.8214</v>
       </c>
       <c r="M7" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>2301.8922</v>
-      </c>
-      <c r="P7" t="n">
-        <v>690.3699000000001</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>46.08750000000001</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4330.1299</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1337.867899999999</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>18509.8168</v>
+        <v>10960.40268</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="F8" t="n">
-        <v>5411.8311</v>
+        <v>3166.180087</v>
       </c>
       <c r="G8" t="n">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>322.7453</v>
+        <v>191.49218</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="J8" t="n">
-        <v>34601.5082</v>
+        <v>20306.76622</v>
       </c>
       <c r="K8" t="n">
-        <v>13.8</v>
+        <v>13.4</v>
       </c>
       <c r="L8" t="n">
-        <v>10679.8602</v>
+        <v>6180.183457</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>2462.6798</v>
-      </c>
-      <c r="P8" t="n">
-        <v>764.2478000000001</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>43.21339999999998</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4687.566499999997</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1460.6389</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>21342.611</v>
+        <v>13745.2448</v>
       </c>
       <c r="E9" t="n">
-        <v>16.3</v>
+        <v>15.73</v>
       </c>
       <c r="F9" t="n">
-        <v>6272.3348</v>
+        <v>3957.2134</v>
       </c>
       <c r="G9" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>369.836</v>
+        <v>233.4444</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1</v>
+        <v>-0.73</v>
       </c>
       <c r="J9" t="n">
-        <v>39827.3732</v>
+        <v>25583.8118</v>
       </c>
       <c r="K9" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="L9" t="n">
-        <v>12212.4272</v>
+        <v>7881.3534</v>
       </c>
       <c r="M9" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>2832.7942</v>
-      </c>
-      <c r="P9" t="n">
-        <v>860.5036999999993</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>47.09070000000003</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5225.865000000005</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1532.567000000001</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>23759.164</v>
+        <v>16047.137</v>
       </c>
       <c r="E10" t="n">
-        <v>16.2</v>
+        <v>15.6</v>
       </c>
       <c r="F10" t="n">
-        <v>6944.8213</v>
+        <v>4647.5833</v>
       </c>
       <c r="G10" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>406.8431</v>
+        <v>279.5319</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>-0.1</v>
       </c>
       <c r="J10" t="n">
-        <v>44209.0522</v>
+        <v>29913.9417</v>
       </c>
       <c r="K10" t="n">
-        <v>13.9</v>
+        <v>13.5</v>
       </c>
       <c r="L10" t="n">
-        <v>13505.0668</v>
+        <v>9219.221299999999</v>
       </c>
       <c r="M10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>2416.553</v>
-      </c>
-      <c r="P10" t="n">
-        <v>672.4865</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>37.00709999999998</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4381.678999999996</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1292.6396</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>26405.9397</v>
+        <v>18509.8168</v>
       </c>
       <c r="E11" t="n">
-        <v>16.9</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>7631.0568</v>
+        <v>5411.8311</v>
       </c>
       <c r="G11" t="n">
         <v>10.1</v>
       </c>
       <c r="H11" t="n">
-        <v>447.6234</v>
+        <v>322.7453</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="J11" t="n">
-        <v>49020.3231</v>
+        <v>34601.5082</v>
       </c>
       <c r="K11" t="n">
-        <v>14.5</v>
+        <v>13.8</v>
       </c>
       <c r="L11" t="n">
-        <v>14983.3265</v>
+        <v>10679.8602</v>
       </c>
       <c r="M11" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>2646.775699999998</v>
-      </c>
-      <c r="P11" t="n">
-        <v>686.2355000000007</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>40.78030000000001</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4811.270900000003</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1478.259699999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>29318.0507</v>
+        <v>21342.611</v>
       </c>
       <c r="E12" t="n">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="F12" t="n">
-        <v>8478.462</v>
+        <v>6272.3348</v>
       </c>
       <c r="G12" t="n">
-        <v>8.9</v>
+        <v>10.4</v>
       </c>
       <c r="H12" t="n">
-        <v>537.8232</v>
+        <v>369.836</v>
       </c>
       <c r="I12" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="J12" t="n">
-        <v>55037.3047</v>
+        <v>39827.3732</v>
       </c>
       <c r="K12" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="L12" t="n">
-        <v>17240.7918</v>
+        <v>12212.4272</v>
       </c>
       <c r="M12" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>2912.111000000001</v>
-      </c>
-      <c r="P12" t="n">
-        <v>847.4051999999992</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>90.19980000000004</v>
-      </c>
-      <c r="R12" t="n">
-        <v>6016.981599999999</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2257.4653</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>4408.5073</v>
+        <v>28172.6536</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>18.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1282.4248</v>
+        <v>7513.9701</v>
       </c>
       <c r="G13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>76.6892</v>
+        <v>438.6812</v>
       </c>
       <c r="I13" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>8196.433499999999</v>
+        <v>50507.1372</v>
       </c>
       <c r="K13" t="n">
-        <v>13.3</v>
+        <v>15.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2505.5014</v>
+        <v>14820.5133</v>
       </c>
       <c r="M13" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="n">
-        <v>4408.5073</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1282.4248</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>76.6892</v>
-      </c>
-      <c r="R13" t="n">
-        <v>8196.433499999999</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2505.5014</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>7100.629444</v>
+        <v>31379.2509</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>18.8</v>
       </c>
       <c r="F14" t="n">
-        <v>1999.237661</v>
+        <v>8156.0625</v>
       </c>
       <c r="G14" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>125.738605</v>
+        <v>478.0219</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>13098.88198</v>
+        <v>56092.4113</v>
       </c>
       <c r="K14" t="n">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="L14" t="n">
-        <v>3999.014879</v>
+        <v>16557.0978</v>
       </c>
       <c r="M14" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>2692.122144</v>
-      </c>
-      <c r="P14" t="n">
-        <v>716.8128609999999</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>49.04940500000001</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4902.448480000001</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1493.513479</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>10043.0204</v>
+        <v>34756.1337</v>
       </c>
       <c r="E15" t="n">
-        <v>16.9</v>
+        <v>17.62</v>
       </c>
       <c r="F15" t="n">
-        <v>2698.6169</v>
+        <v>8952.2101</v>
       </c>
       <c r="G15" t="n">
-        <v>7.1</v>
+        <v>6.75</v>
       </c>
       <c r="H15" t="n">
-        <v>165.07</v>
+        <v>554.5296</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J15" t="n">
-        <v>18188.8484</v>
+        <v>63060.9238</v>
       </c>
       <c r="K15" t="n">
-        <v>14.3</v>
+        <v>14.24</v>
       </c>
       <c r="L15" t="n">
-        <v>5447.211</v>
+        <v>19352.5799</v>
       </c>
       <c r="M15" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>2942.390955999999</v>
-      </c>
-      <c r="P15" t="n">
-        <v>699.3792390000001</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>39.33139499999999</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5089.966419999999</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1448.196121</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>12987.5983</v>
+        <v>4408.5073</v>
       </c>
       <c r="E16" t="n">
-        <v>16.9</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>3413.4148</v>
+        <v>1282.4248</v>
       </c>
       <c r="G16" t="n">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="H16" t="n">
-        <v>207.6723</v>
+        <v>76.6892</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="J16" t="n">
-        <v>23328.484</v>
+        <v>8196.433499999999</v>
       </c>
       <c r="K16" t="n">
-        <v>14.2</v>
+        <v>13.3</v>
       </c>
       <c r="L16" t="n">
-        <v>6927.4708</v>
+        <v>2505.5014</v>
       </c>
       <c r="M16" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>2944.5779</v>
-      </c>
-      <c r="P16" t="n">
-        <v>714.7979</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>42.60230000000001</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5139.635600000001</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1480.2598</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>16186.0795</v>
+        <v>7100.629444</v>
       </c>
       <c r="E17" t="n">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>4240.2086</v>
+        <v>1999.237661</v>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="H17" t="n">
-        <v>253.0245</v>
+        <v>125.738605</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="J17" t="n">
-        <v>29117.5286</v>
+        <v>13098.88198</v>
       </c>
       <c r="K17" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="L17" t="n">
-        <v>8691.240400000001</v>
+        <v>3999.014879</v>
       </c>
       <c r="M17" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>3198.4812</v>
-      </c>
-      <c r="P17" t="n">
-        <v>826.7937999999999</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>45.35219999999998</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5789.044600000001</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1763.769600000001</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>19199.1741</v>
+        <v>10043.0204</v>
       </c>
       <c r="E18" t="n">
-        <v>18.2</v>
+        <v>16.9</v>
       </c>
       <c r="F18" t="n">
-        <v>4962.7477</v>
+        <v>2698.6169</v>
       </c>
       <c r="G18" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="H18" t="n">
-        <v>302.0912</v>
+        <v>165.07</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>34456.595</v>
+        <v>18188.8484</v>
       </c>
       <c r="K18" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="L18" t="n">
-        <v>10294.6731</v>
+        <v>5447.211</v>
       </c>
       <c r="M18" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>3013.0946</v>
-      </c>
-      <c r="P18" t="n">
-        <v>722.5391</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>49.06670000000003</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5339.0664</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1603.432699999999</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>21942.4908</v>
+        <v>12987.5983</v>
       </c>
       <c r="E19" t="n">
-        <v>18.482165646</v>
+        <v>16.9</v>
       </c>
       <c r="F19" t="n">
-        <v>5790.6601</v>
+        <v>3413.4148</v>
       </c>
       <c r="G19" t="n">
-        <v>7.3119434857</v>
+        <v>8.1</v>
       </c>
       <c r="H19" t="n">
-        <v>350.4574</v>
+        <v>207.6723</v>
       </c>
       <c r="I19" t="n">
-        <v>3.420389499</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>39453.1654</v>
+        <v>23328.484</v>
       </c>
       <c r="K19" t="n">
-        <v>14.750796</v>
+        <v>14.2</v>
       </c>
       <c r="L19" t="n">
-        <v>11720.0144</v>
+        <v>6927.4708</v>
       </c>
       <c r="M19" t="n">
-        <v>11.983424179</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>2743.316699999999</v>
-      </c>
-      <c r="P19" t="n">
-        <v>827.9124000000002</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>48.36619999999999</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4996.570399999997</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1425.3413</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>25037.0289</v>
+        <v>16186.0795</v>
       </c>
       <c r="E20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>6657.2103</v>
+        <v>4240.2086</v>
       </c>
       <c r="G20" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="H20" t="n">
-        <v>395.3928</v>
+        <v>253.0245</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>44989.7824</v>
+        <v>29117.5286</v>
       </c>
       <c r="K20" t="n">
-        <v>15.1</v>
+        <v>14.4</v>
       </c>
       <c r="L20" t="n">
-        <v>13295.5431</v>
+        <v>8691.240400000001</v>
       </c>
       <c r="M20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>3094.538100000002</v>
-      </c>
-      <c r="P20" t="n">
-        <v>866.5501999999997</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>44.93540000000002</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5536.616999999998</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1575.528700000001</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>28172.6536</v>
+        <v>19199.1741</v>
       </c>
       <c r="E21" t="n">
-        <v>18.8</v>
+        <v>18.2</v>
       </c>
       <c r="F21" t="n">
-        <v>7513.9701</v>
+        <v>4962.7477</v>
       </c>
       <c r="G21" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="H21" t="n">
-        <v>438.6812</v>
+        <v>302.0912</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>50507.1372</v>
+        <v>34456.595</v>
       </c>
       <c r="K21" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="L21" t="n">
-        <v>14820.5133</v>
+        <v>10294.6731</v>
       </c>
       <c r="M21" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>3135.6247</v>
-      </c>
-      <c r="P21" t="n">
-        <v>856.7597999999998</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>43.28839999999997</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5517.354800000001</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1524.9702</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>31379.2509</v>
+        <v>21942.4908</v>
       </c>
       <c r="E22" t="n">
-        <v>18.8</v>
+        <v>18.482165646</v>
       </c>
       <c r="F22" t="n">
-        <v>8156.0625</v>
+        <v>5790.6601</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>7.3119434857</v>
       </c>
       <c r="H22" t="n">
-        <v>478.0219</v>
+        <v>350.4574</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>3.420389499</v>
       </c>
       <c r="J22" t="n">
-        <v>56092.4113</v>
+        <v>39453.1654</v>
       </c>
       <c r="K22" t="n">
-        <v>14.7</v>
+        <v>14.750796</v>
       </c>
       <c r="L22" t="n">
-        <v>16557.0978</v>
+        <v>11720.0144</v>
       </c>
       <c r="M22" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>3206.597299999998</v>
-      </c>
-      <c r="P22" t="n">
-        <v>642.0924000000005</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>39.34070000000003</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5585.274100000002</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1736.584499999999</v>
+        <v>11.983424179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>34756.1337</v>
+        <v>25037.0289</v>
       </c>
       <c r="E23" t="n">
-        <v>17.62</v>
+        <v>18.5</v>
       </c>
       <c r="F23" t="n">
-        <v>8952.2101</v>
+        <v>6657.2103</v>
       </c>
       <c r="G23" t="n">
-        <v>6.75</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>554.5296</v>
+        <v>395.3928</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>63060.9238</v>
+        <v>44989.7824</v>
       </c>
       <c r="K23" t="n">
-        <v>14.24</v>
+        <v>15.1</v>
       </c>
       <c r="L23" t="n">
-        <v>19352.5799</v>
+        <v>13295.5431</v>
       </c>
       <c r="M23" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>3376.882799999999</v>
-      </c>
-      <c r="P23" t="n">
-        <v>796.1476000000002</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>76.50769999999994</v>
-      </c>
-      <c r="R23" t="n">
-        <v>6968.512499999997</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2795.482100000001</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>154.2301</v>
+        <v>1027.5252</v>
       </c>
       <c r="C24" t="n">
-        <v>13.13</v>
+        <v>10.3</v>
       </c>
       <c r="D24" t="n">
-        <v>5253.5938</v>
+        <v>34193.2098</v>
       </c>
       <c r="E24" t="n">
-        <v>16.82</v>
+        <v>17.77</v>
       </c>
       <c r="F24" t="n">
-        <v>1042.2228</v>
+        <v>6419.3284</v>
       </c>
       <c r="G24" t="n">
-        <v>4.92</v>
+        <v>7.73</v>
       </c>
       <c r="H24" t="n">
-        <v>71.9175</v>
+        <v>385.9731</v>
       </c>
       <c r="I24" t="n">
-        <v>-2.85</v>
+        <v>3.03</v>
       </c>
       <c r="J24" t="n">
-        <v>9074.4113</v>
+        <v>57929.1155</v>
       </c>
       <c r="K24" t="n">
-        <v>13.58</v>
+        <v>15.24</v>
       </c>
       <c r="L24" t="n">
-        <v>2624.3645</v>
+        <v>16289.052</v>
       </c>
       <c r="M24" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="N24" t="n">
-        <v>154.2301</v>
-      </c>
-      <c r="O24" t="n">
-        <v>5253.5938</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1042.2228</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>71.9175</v>
-      </c>
-      <c r="R24" t="n">
-        <v>9074.4113</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2624.3645</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>207.2026</v>
+        <v>1163.901</v>
       </c>
       <c r="C25" t="n">
-        <v>13.4</v>
+        <v>12.8</v>
       </c>
       <c r="D25" t="n">
-        <v>8582.778399999999</v>
+        <v>38395.0742</v>
       </c>
       <c r="E25" t="n">
-        <v>16.69</v>
+        <v>17.37</v>
       </c>
       <c r="F25" t="n">
-        <v>1695.2989</v>
+        <v>7229.89</v>
       </c>
       <c r="G25" t="n">
-        <v>9.130000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="H25" t="n">
-        <v>123.3072</v>
+        <v>422.3056</v>
       </c>
       <c r="I25" t="n">
-        <v>4.63</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>14754.9206</v>
+        <v>64615.9187</v>
       </c>
       <c r="K25" t="n">
-        <v>14.4</v>
+        <v>15.46</v>
       </c>
       <c r="L25" t="n">
-        <v>4269.6405</v>
+        <v>17827.0533</v>
       </c>
       <c r="M25" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="N25" t="n">
-        <v>52.9725</v>
-      </c>
-      <c r="O25" t="n">
-        <v>3329.1846</v>
-      </c>
-      <c r="P25" t="n">
-        <v>653.0761</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>51.38969999999999</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5680.5093</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1645.276</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290.5499</v>
+        <v>1307.7317</v>
       </c>
       <c r="C26" t="n">
-        <v>12.2</v>
+        <v>12.36</v>
       </c>
       <c r="D26" t="n">
-        <v>12074.6735</v>
+        <v>42573.9927</v>
       </c>
       <c r="E26" t="n">
-        <v>17.18</v>
+        <v>18.42</v>
       </c>
       <c r="F26" t="n">
-        <v>2346.2979</v>
+        <v>7819.492</v>
       </c>
       <c r="G26" t="n">
-        <v>7.87</v>
+        <v>7.84</v>
       </c>
       <c r="H26" t="n">
-        <v>153.0625</v>
+        <v>505.2978</v>
       </c>
       <c r="I26" t="n">
-        <v>8.039999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="J26" t="n">
-        <v>20504.0717</v>
+        <v>71768.04489999999</v>
       </c>
       <c r="K26" t="n">
-        <v>14.8</v>
+        <v>15.39</v>
       </c>
       <c r="L26" t="n">
-        <v>5792.5503</v>
+        <v>20066.8283</v>
       </c>
       <c r="M26" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="N26" t="n">
-        <v>83.34729999999999</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3491.895100000002</v>
-      </c>
-      <c r="P26" t="n">
-        <v>650.999</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>29.75530000000001</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5749.151100000001</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1522.909799999999</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>393.8272</v>
+        <v>154.2301</v>
       </c>
       <c r="C27" t="n">
-        <v>12.5</v>
+        <v>13.13</v>
       </c>
       <c r="D27" t="n">
-        <v>15420.7892</v>
+        <v>5253.5938</v>
       </c>
       <c r="E27" t="n">
-        <v>16.43</v>
+        <v>16.82</v>
       </c>
       <c r="F27" t="n">
-        <v>3041.7621</v>
+        <v>1042.2228</v>
       </c>
       <c r="G27" t="n">
-        <v>9.050000000000001</v>
+        <v>4.92</v>
       </c>
       <c r="H27" t="n">
-        <v>187.4415</v>
+        <v>71.9175</v>
       </c>
       <c r="I27" t="n">
-        <v>5.49</v>
+        <v>-2.85</v>
       </c>
       <c r="J27" t="n">
-        <v>26298.3023</v>
+        <v>9074.4113</v>
       </c>
       <c r="K27" t="n">
-        <v>14.7</v>
+        <v>13.58</v>
       </c>
       <c r="L27" t="n">
-        <v>7441.9236</v>
+        <v>2624.3645</v>
       </c>
       <c r="M27" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="N27" t="n">
-        <v>103.2773</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3346.115699999998</v>
-      </c>
-      <c r="P27" t="n">
-        <v>695.4641999999999</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>34.37899999999999</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5794.230599999999</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1649.3733</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>500.9464</v>
+        <v>207.2026</v>
       </c>
       <c r="C28" t="n">
-        <v>10.8</v>
+        <v>13.4</v>
       </c>
       <c r="D28" t="n">
-        <v>19386.2743</v>
+        <v>8582.778399999999</v>
       </c>
       <c r="E28" t="n">
-        <v>17.15</v>
+        <v>16.69</v>
       </c>
       <c r="F28" t="n">
-        <v>3765.3782</v>
+        <v>1695.2989</v>
       </c>
       <c r="G28" t="n">
-        <v>7.78</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>228.7531</v>
+        <v>123.3072</v>
       </c>
       <c r="I28" t="n">
-        <v>2.63</v>
+        <v>4.63</v>
       </c>
       <c r="J28" t="n">
-        <v>32835.7577</v>
+        <v>14754.9206</v>
       </c>
       <c r="K28" t="n">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="L28" t="n">
-        <v>9183.158600000001</v>
+        <v>4269.6405</v>
       </c>
       <c r="M28" t="n">
-        <v>14.09</v>
-      </c>
-      <c r="N28" t="n">
-        <v>107.1192</v>
-      </c>
-      <c r="O28" t="n">
-        <v>3965.485100000002</v>
-      </c>
-      <c r="P28" t="n">
-        <v>723.6161000000002</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>41.3116</v>
-      </c>
-      <c r="R28" t="n">
-        <v>6537.455400000003</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1741.235000000001</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>652.7452</v>
+        <v>290.5499</v>
       </c>
       <c r="C29" t="n">
-        <v>10.3</v>
+        <v>12.2</v>
       </c>
       <c r="D29" t="n">
-        <v>22620.9971</v>
+        <v>12074.6735</v>
       </c>
       <c r="E29" t="n">
-        <v>17.3</v>
+        <v>17.18</v>
       </c>
       <c r="F29" t="n">
-        <v>4409.5598</v>
+        <v>2346.2979</v>
       </c>
       <c r="G29" t="n">
-        <v>10.54</v>
+        <v>7.87</v>
       </c>
       <c r="H29" t="n">
-        <v>264.0783</v>
+        <v>153.0625</v>
       </c>
       <c r="I29" t="n">
-        <v>1.91</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>38566.138</v>
+        <v>20504.0717</v>
       </c>
       <c r="K29" t="n">
-        <v>15.11303603</v>
+        <v>14.8</v>
       </c>
       <c r="L29" t="n">
-        <v>10882.8358</v>
+        <v>5792.5503</v>
       </c>
       <c r="M29" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="N29" t="n">
-        <v>151.7988</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3234.7228</v>
-      </c>
-      <c r="P29" t="n">
-        <v>644.1815999999999</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>35.32520000000002</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5730.380299999997</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1699.6772</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>754.0753999999999</v>
+        <v>393.8272</v>
       </c>
       <c r="C30" t="n">
-        <v>11.53</v>
+        <v>12.5</v>
       </c>
       <c r="D30" t="n">
-        <v>26476.4217</v>
+        <v>15420.7892</v>
       </c>
       <c r="E30" t="n">
-        <v>16.9274232985</v>
+        <v>16.43</v>
       </c>
       <c r="F30" t="n">
-        <v>5025.3143</v>
+        <v>3041.7621</v>
       </c>
       <c r="G30" t="n">
-        <v>7.72</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>310.9881</v>
+        <v>187.4415</v>
       </c>
       <c r="I30" t="n">
-        <v>3.91</v>
+        <v>5.49</v>
       </c>
       <c r="J30" t="n">
-        <v>44865.264</v>
+        <v>26298.3023</v>
       </c>
       <c r="K30" t="n">
-        <v>14.9256436418</v>
+        <v>14.7</v>
       </c>
       <c r="L30" t="n">
-        <v>12609.4525</v>
+        <v>7441.9236</v>
       </c>
       <c r="M30" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="N30" t="n">
-        <v>101.3302</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3855.424599999998</v>
-      </c>
-      <c r="P30" t="n">
-        <v>615.7545</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>46.90979999999996</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6299.126000000004</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1726.616699999999</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.3984</v>
+        <v>500.9464</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>10.8</v>
       </c>
       <c r="D31" t="n">
-        <v>30670.356</v>
+        <v>19386.2743</v>
       </c>
       <c r="E31" t="n">
-        <v>17.2</v>
+        <v>17.15</v>
       </c>
       <c r="F31" t="n">
-        <v>5712.6454</v>
+        <v>3765.3782</v>
       </c>
       <c r="G31" t="n">
-        <v>8.529999999999999</v>
+        <v>7.78</v>
       </c>
       <c r="H31" t="n">
-        <v>344.3012</v>
+        <v>228.7531</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J31" t="n">
-        <v>51895.6847</v>
+        <v>32835.7577</v>
       </c>
       <c r="K31" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>14643.2848</v>
+        <v>9183.158600000001</v>
       </c>
       <c r="M31" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="N31" t="n">
-        <v>115.3230000000001</v>
-      </c>
-      <c r="O31" t="n">
-        <v>4193.934300000001</v>
-      </c>
-      <c r="P31" t="n">
-        <v>687.3311000000003</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>33.31310000000002</v>
-      </c>
-      <c r="R31" t="n">
-        <v>7030.420699999995</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2033.8323</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1027.5252</v>
+        <v>652.7452</v>
       </c>
       <c r="C32" t="n">
         <v>10.3</v>
       </c>
       <c r="D32" t="n">
-        <v>34193.2098</v>
+        <v>22620.9971</v>
       </c>
       <c r="E32" t="n">
-        <v>17.77</v>
+        <v>17.3</v>
       </c>
       <c r="F32" t="n">
-        <v>6419.3284</v>
+        <v>4409.5598</v>
       </c>
       <c r="G32" t="n">
-        <v>7.73</v>
+        <v>10.54</v>
       </c>
       <c r="H32" t="n">
-        <v>385.9731</v>
+        <v>264.0783</v>
       </c>
       <c r="I32" t="n">
-        <v>3.03</v>
+        <v>1.91</v>
       </c>
       <c r="J32" t="n">
-        <v>57929.1155</v>
+        <v>38566.138</v>
       </c>
       <c r="K32" t="n">
-        <v>15.24</v>
+        <v>15.11303603</v>
       </c>
       <c r="L32" t="n">
-        <v>16289.052</v>
+        <v>10882.8358</v>
       </c>
       <c r="M32" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="N32" t="n">
-        <v>158.1268</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3522.853799999997</v>
-      </c>
-      <c r="P32" t="n">
-        <v>706.683</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>41.67189999999999</v>
-      </c>
-      <c r="R32" t="n">
-        <v>6033.430800000002</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1645.7672</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1163.901</v>
+        <v>754.0753999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>12.8</v>
+        <v>11.53</v>
       </c>
       <c r="D33" t="n">
-        <v>38395.0742</v>
+        <v>26476.4217</v>
       </c>
       <c r="E33" t="n">
-        <v>17.37</v>
+        <v>16.9274232985</v>
       </c>
       <c r="F33" t="n">
-        <v>7229.89</v>
+        <v>5025.3143</v>
       </c>
       <c r="G33" t="n">
-        <v>10.35</v>
+        <v>7.72</v>
       </c>
       <c r="H33" t="n">
-        <v>422.3056</v>
+        <v>310.9881</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>3.91</v>
       </c>
       <c r="J33" t="n">
-        <v>64615.9187</v>
+        <v>44865.264</v>
       </c>
       <c r="K33" t="n">
-        <v>15.46</v>
+        <v>14.9256436418</v>
       </c>
       <c r="L33" t="n">
-        <v>17827.0533</v>
+        <v>12609.4525</v>
       </c>
       <c r="M33" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="N33" t="n">
-        <v>136.3758</v>
-      </c>
-      <c r="O33" t="n">
-        <v>4201.864400000006</v>
-      </c>
-      <c r="P33" t="n">
-        <v>810.5616</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>36.33250000000004</v>
-      </c>
-      <c r="R33" t="n">
-        <v>6686.803200000002</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1538.0013</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1307.7317</v>
+        <v>869.3984</v>
       </c>
       <c r="C34" t="n">
-        <v>12.36</v>
+        <v>10</v>
       </c>
       <c r="D34" t="n">
-        <v>42573.9927</v>
+        <v>30670.356</v>
       </c>
       <c r="E34" t="n">
-        <v>18.42</v>
+        <v>17.2</v>
       </c>
       <c r="F34" t="n">
-        <v>7819.492</v>
+        <v>5712.6454</v>
       </c>
       <c r="G34" t="n">
-        <v>7.84</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>505.2978</v>
+        <v>344.3012</v>
       </c>
       <c r="I34" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>71768.04489999999</v>
+        <v>51895.6847</v>
       </c>
       <c r="K34" t="n">
-        <v>15.39</v>
+        <v>15.2</v>
       </c>
       <c r="L34" t="n">
-        <v>20066.8283</v>
+        <v>14643.2848</v>
       </c>
       <c r="M34" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="N34" t="n">
-        <v>143.8307</v>
-      </c>
-      <c r="O34" t="n">
-        <v>4178.9185</v>
-      </c>
-      <c r="P34" t="n">
-        <v>589.6019999999999</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>82.99219999999997</v>
-      </c>
-      <c r="R34" t="n">
-        <v>7152.126199999992</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2239.775000000001</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.6282</v>
+        <v>1168.0016</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.62</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>4824.0881</v>
+        <v>39449.4154</v>
       </c>
       <c r="E35" t="n">
-        <v>-8.359999999999999</v>
+        <v>13.92</v>
       </c>
       <c r="F35" t="n">
-        <v>862.0106</v>
+        <v>6856.293</v>
       </c>
       <c r="G35" t="n">
-        <v>-21.95</v>
+        <v>5.05</v>
       </c>
       <c r="H35" t="n">
-        <v>56.569</v>
+        <v>373.7649</v>
       </c>
       <c r="I35" t="n">
-        <v>-18.89</v>
+        <v>-1.24</v>
       </c>
       <c r="J35" t="n">
-        <v>8007.6215</v>
+        <v>65541.621</v>
       </c>
       <c r="K35" t="n">
-        <v>-11.57</v>
+        <v>11.74</v>
       </c>
       <c r="L35" t="n">
-        <v>2188.8944</v>
+        <v>18067.9109</v>
       </c>
       <c r="M35" t="n">
-        <v>-13.7</v>
-      </c>
-      <c r="N35" t="n">
-        <v>132.6282</v>
-      </c>
-      <c r="O35" t="n">
-        <v>4824.0881</v>
-      </c>
-      <c r="P35" t="n">
-        <v>862.0106</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>56.569</v>
-      </c>
-      <c r="R35" t="n">
-        <v>8007.6215</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2188.8944</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>172.9968</v>
+        <v>1341.2441</v>
       </c>
       <c r="C36" t="n">
-        <v>-14.31</v>
+        <v>12.8</v>
       </c>
       <c r="D36" t="n">
-        <v>8535.666300000001</v>
+        <v>44572.1488</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.3</v>
+        <v>14.92</v>
       </c>
       <c r="F36" t="n">
-        <v>1464.0613</v>
+        <v>7478.9917</v>
       </c>
       <c r="G36" t="n">
-        <v>-14.74</v>
+        <v>5.03</v>
       </c>
       <c r="H36" t="n">
-        <v>96.3596</v>
+        <v>416.6646</v>
       </c>
       <c r="I36" t="n">
-        <v>-13.15</v>
+        <v>-0.79</v>
       </c>
       <c r="J36" t="n">
-        <v>14087.4989</v>
+        <v>73141.626</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.16</v>
+        <v>12.45</v>
       </c>
       <c r="L36" t="n">
-        <v>3914.7743</v>
+        <v>19749.2412</v>
       </c>
       <c r="M36" t="n">
-        <v>-10.16</v>
-      </c>
-      <c r="N36" t="n">
-        <v>40.36860000000001</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3711.578200000001</v>
-      </c>
-      <c r="P36" t="n">
-        <v>602.0507000000001</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>39.7906</v>
-      </c>
-      <c r="R36" t="n">
-        <v>6079.8774</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1725.8799</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.6262</v>
+        <v>1498.2428</v>
       </c>
       <c r="C37" t="n">
-        <v>-9.970000000000001</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>12615.3659</v>
+        <v>49867.6844</v>
       </c>
       <c r="E37" t="n">
-        <v>3.25</v>
+        <v>15.2</v>
       </c>
       <c r="F37" t="n">
-        <v>2421.4394</v>
+        <v>7492.3115</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.48</v>
+        <v>12</v>
       </c>
       <c r="H37" t="n">
-        <v>123.642</v>
+        <v>478.6626</v>
       </c>
       <c r="I37" t="n">
-        <v>-13.53</v>
+        <v>-2.4</v>
       </c>
       <c r="J37" t="n">
-        <v>20829.5733</v>
+        <v>81615.9687</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.11</v>
+        <v>13.3</v>
       </c>
       <c r="L37" t="n">
-        <v>5529.1417</v>
+        <v>22757.7298</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="N37" t="n">
-        <v>90.62939999999998</v>
-      </c>
-      <c r="O37" t="n">
-        <v>4079.6996</v>
-      </c>
-      <c r="P37" t="n">
-        <v>957.3781000000001</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>27.2824</v>
-      </c>
-      <c r="R37" t="n">
-        <v>6742.0744</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1614.3674</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.6002</v>
+        <v>132.6282</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.39</v>
+        <v>-11.62</v>
       </c>
       <c r="D38" t="n">
-        <v>16990.0507</v>
+        <v>4824.0881</v>
       </c>
       <c r="E38" t="n">
-        <v>7.31</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>3079.3635</v>
+        <v>862.0106</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.28</v>
+        <v>-21.95</v>
       </c>
       <c r="H38" t="n">
-        <v>165.9572</v>
+        <v>56.569</v>
       </c>
       <c r="I38" t="n">
-        <v>-9.33</v>
+        <v>-18.89</v>
       </c>
       <c r="J38" t="n">
-        <v>27998.9876</v>
+        <v>8007.6215</v>
       </c>
       <c r="K38" t="n">
-        <v>4.24</v>
+        <v>-11.57</v>
       </c>
       <c r="L38" t="n">
-        <v>7545.973</v>
+        <v>2188.8944</v>
       </c>
       <c r="M38" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N38" t="n">
-        <v>119.974</v>
-      </c>
-      <c r="O38" t="n">
-        <v>4374.684799999999</v>
-      </c>
-      <c r="P38" t="n">
-        <v>657.9240999999997</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>42.3152</v>
-      </c>
-      <c r="R38" t="n">
-        <v>7169.4143</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2016.8313</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>519.6244</v>
+        <v>172.9968</v>
       </c>
       <c r="C39" t="n">
-        <v>-2.61</v>
+        <v>-14.31</v>
       </c>
       <c r="D39" t="n">
-        <v>21582.8843</v>
+        <v>8535.666300000001</v>
       </c>
       <c r="E39" t="n">
-        <v>9.5</v>
+        <v>-2.3</v>
       </c>
       <c r="F39" t="n">
-        <v>3891.9746</v>
+        <v>1464.0613</v>
       </c>
       <c r="G39" t="n">
-        <v>1.49</v>
+        <v>-14.74</v>
       </c>
       <c r="H39" t="n">
-        <v>222.6086</v>
+        <v>96.3596</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.4</v>
+        <v>-13.15</v>
       </c>
       <c r="J39" t="n">
-        <v>35609.307</v>
+        <v>14087.4989</v>
       </c>
       <c r="K39" t="n">
-        <v>6.66</v>
+        <v>-6.16</v>
       </c>
       <c r="L39" t="n">
-        <v>9614.8235</v>
+        <v>3914.7743</v>
       </c>
       <c r="M39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>136.0242000000001</v>
-      </c>
-      <c r="O39" t="n">
-        <v>4592.833600000002</v>
-      </c>
-      <c r="P39" t="n">
-        <v>812.6111000000001</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>56.6514</v>
-      </c>
-      <c r="R39" t="n">
-        <v>7610.3194</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2068.8505</v>
+        <v>-10.16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.3537</v>
+        <v>263.6262</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.2</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>25502.991</v>
+        <v>12615.3659</v>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="F40" t="n">
-        <v>4655.3883</v>
+        <v>2421.4394</v>
       </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>-6.48</v>
       </c>
       <c r="H40" t="n">
-        <v>268.1002</v>
+        <v>123.642</v>
       </c>
       <c r="I40" t="n">
-        <v>2.4</v>
+        <v>-13.53</v>
       </c>
       <c r="J40" t="n">
-        <v>42448.2905</v>
+        <v>20829.5733</v>
       </c>
       <c r="K40" t="n">
-        <v>8.6</v>
+        <v>-0.11</v>
       </c>
       <c r="L40" t="n">
-        <v>11622.5574</v>
+        <v>5529.1417</v>
       </c>
       <c r="M40" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N40" t="n">
-        <v>147.7293</v>
-      </c>
-      <c r="O40" t="n">
-        <v>3920.1067</v>
-      </c>
-      <c r="P40" t="n">
-        <v>763.4136999999996</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>45.49159999999998</v>
-      </c>
-      <c r="R40" t="n">
-        <v>6838.983500000002</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2007.733899999999</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>771.7611000000001</v>
+        <v>383.6002</v>
       </c>
       <c r="C41" t="n">
-        <v>1.08</v>
+        <v>-6.39</v>
       </c>
       <c r="D41" t="n">
-        <v>30095.4063</v>
+        <v>16990.0507</v>
       </c>
       <c r="E41" t="n">
-        <v>11.92</v>
+        <v>7.31</v>
       </c>
       <c r="F41" t="n">
-        <v>5417.7687</v>
+        <v>3079.3635</v>
       </c>
       <c r="G41" t="n">
-        <v>5.63</v>
+        <v>-1.28</v>
       </c>
       <c r="H41" t="n">
-        <v>296.999</v>
+        <v>165.9572</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.34</v>
+        <v>-9.33</v>
       </c>
       <c r="J41" t="n">
-        <v>49983.6564</v>
+        <v>27998.9876</v>
       </c>
       <c r="K41" t="n">
-        <v>10.03</v>
+        <v>4.24</v>
       </c>
       <c r="L41" t="n">
-        <v>13698.7202</v>
+        <v>7545.973</v>
       </c>
       <c r="M41" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="N41" t="n">
-        <v>104.4074000000001</v>
-      </c>
-      <c r="O41" t="n">
-        <v>4592.415299999997</v>
-      </c>
-      <c r="P41" t="n">
-        <v>762.3804</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>28.89880000000005</v>
-      </c>
-      <c r="R41" t="n">
-        <v>7535.365899999997</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2076.1628</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>958.5401000000001</v>
+        <v>519.6244</v>
       </c>
       <c r="C42" t="n">
-        <v>7.19</v>
+        <v>-2.61</v>
       </c>
       <c r="D42" t="n">
-        <v>35161.975</v>
+        <v>21582.8843</v>
       </c>
       <c r="E42" t="n">
-        <v>13.21</v>
+        <v>9.5</v>
       </c>
       <c r="F42" t="n">
-        <v>6365.4868</v>
+        <v>3891.9746</v>
       </c>
       <c r="G42" t="n">
-        <v>10.18</v>
+        <v>1.49</v>
       </c>
       <c r="H42" t="n">
-        <v>336.4354</v>
+        <v>222.6086</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.21</v>
+        <v>-0.4</v>
       </c>
       <c r="J42" t="n">
-        <v>58387.1277</v>
+        <v>35609.307</v>
       </c>
       <c r="K42" t="n">
-        <v>11.27</v>
+        <v>6.66</v>
       </c>
       <c r="L42" t="n">
-        <v>15901.1256</v>
+        <v>9614.8235</v>
       </c>
       <c r="M42" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="N42" t="n">
-        <v>186.779</v>
-      </c>
-      <c r="O42" t="n">
-        <v>5066.5687</v>
-      </c>
-      <c r="P42" t="n">
-        <v>947.7181</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>39.43639999999999</v>
-      </c>
-      <c r="R42" t="n">
-        <v>8403.471299999997</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2202.4054</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1168.0016</v>
+        <v>667.3537</v>
       </c>
       <c r="C43" t="n">
-        <v>9.039999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="D43" t="n">
-        <v>39449.4154</v>
+        <v>25502.991</v>
       </c>
       <c r="E43" t="n">
-        <v>13.92</v>
+        <v>11</v>
       </c>
       <c r="F43" t="n">
-        <v>6856.293</v>
+        <v>4655.3883</v>
       </c>
       <c r="G43" t="n">
-        <v>5.05</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>373.7649</v>
+        <v>268.1002</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.24</v>
+        <v>2.4</v>
       </c>
       <c r="J43" t="n">
-        <v>65541.621</v>
+        <v>42448.2905</v>
       </c>
       <c r="K43" t="n">
-        <v>11.74</v>
+        <v>8.6</v>
       </c>
       <c r="L43" t="n">
-        <v>18067.9109</v>
+        <v>11622.5574</v>
       </c>
       <c r="M43" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="N43" t="n">
-        <v>209.4615</v>
-      </c>
-      <c r="O43" t="n">
-        <v>4287.440399999999</v>
-      </c>
-      <c r="P43" t="n">
-        <v>490.8062</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>37.3295</v>
-      </c>
-      <c r="R43" t="n">
-        <v>7154.493300000002</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2166.7853</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1341.2441</v>
+        <v>771.7611000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>12.8</v>
+        <v>1.08</v>
       </c>
       <c r="D44" t="n">
-        <v>44572.1488</v>
+        <v>30095.4063</v>
       </c>
       <c r="E44" t="n">
-        <v>14.92</v>
+        <v>11.92</v>
       </c>
       <c r="F44" t="n">
-        <v>7478.9917</v>
+        <v>5417.7687</v>
       </c>
       <c r="G44" t="n">
-        <v>5.03</v>
+        <v>5.63</v>
       </c>
       <c r="H44" t="n">
-        <v>416.6646</v>
+        <v>296.999</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.79</v>
+        <v>-1.34</v>
       </c>
       <c r="J44" t="n">
-        <v>73141.626</v>
+        <v>49983.6564</v>
       </c>
       <c r="K44" t="n">
-        <v>12.45</v>
+        <v>10.03</v>
       </c>
       <c r="L44" t="n">
-        <v>19749.2412</v>
+        <v>13698.7202</v>
       </c>
       <c r="M44" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="N44" t="n">
-        <v>173.2424999999998</v>
-      </c>
-      <c r="O44" t="n">
-        <v>5122.733400000005</v>
-      </c>
-      <c r="P44" t="n">
-        <v>622.6986999999999</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>42.8997</v>
-      </c>
-      <c r="R44" t="n">
-        <v>7600.005000000005</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1681.330300000001</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1498.2428</v>
+        <v>958.5401000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>7.19</v>
       </c>
       <c r="D45" t="n">
-        <v>49867.6844</v>
+        <v>35161.975</v>
       </c>
       <c r="E45" t="n">
-        <v>15.2</v>
+        <v>13.21</v>
       </c>
       <c r="F45" t="n">
-        <v>7492.3115</v>
+        <v>6365.4868</v>
       </c>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>10.18</v>
       </c>
       <c r="H45" t="n">
-        <v>478.6626</v>
+        <v>336.4354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2.4</v>
+        <v>-0.21</v>
       </c>
       <c r="J45" t="n">
-        <v>81615.9687</v>
+        <v>58387.1277</v>
       </c>
       <c r="K45" t="n">
-        <v>13.3</v>
+        <v>11.27</v>
       </c>
       <c r="L45" t="n">
-        <v>22757.7298</v>
+        <v>15901.1256</v>
       </c>
       <c r="M45" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>156.9987000000001</v>
-      </c>
-      <c r="O45" t="n">
-        <v>5295.535599999996</v>
-      </c>
-      <c r="P45" t="n">
-        <v>13.31980000000021</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>61.99799999999999</v>
-      </c>
-      <c r="R45" t="n">
-        <v>8474.342699999994</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3008.488600000001</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>191.007</v>
+        <v>1487.369986</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33</v>
+        <v>20.26</v>
       </c>
       <c r="D46" t="n">
-        <v>6241.5974</v>
+        <v>48860.120364</v>
       </c>
       <c r="E46" t="n">
-        <v>22.88</v>
+        <v>22.71</v>
       </c>
       <c r="F46" t="n">
-        <v>1039.8453</v>
+        <v>6641.747435</v>
       </c>
       <c r="G46" t="n">
-        <v>15.57</v>
+        <v>7.88</v>
       </c>
       <c r="H46" t="n">
-        <v>69.6694</v>
+        <v>417.154558</v>
       </c>
       <c r="I46" t="n">
-        <v>13.08</v>
+        <v>11.21</v>
       </c>
       <c r="J46" t="n">
-        <v>10062.596</v>
+        <v>76814.434645</v>
       </c>
       <c r="K46" t="n">
-        <v>21.28</v>
+        <v>19.18</v>
       </c>
       <c r="L46" t="n">
-        <v>2590.1463</v>
+        <v>19825.19686</v>
       </c>
       <c r="M46" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="N46" t="n">
-        <v>191.007</v>
-      </c>
-      <c r="O46" t="n">
-        <v>6241.5974</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1039.8453</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>69.6694</v>
-      </c>
-      <c r="R46" t="n">
-        <v>10062.596</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2590.1463</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>263.8582</v>
+        <v>1648.137619</v>
       </c>
       <c r="C47" t="n">
-        <v>24.77</v>
+        <v>19.01</v>
       </c>
       <c r="D47" t="n">
-        <v>11374.9225</v>
+        <v>54581.885342</v>
       </c>
       <c r="E47" t="n">
-        <v>29.2</v>
+        <v>21.23</v>
       </c>
       <c r="F47" t="n">
-        <v>1934.4607</v>
+        <v>7376.717511</v>
       </c>
       <c r="G47" t="n">
-        <v>20.7</v>
+        <v>8.83</v>
       </c>
       <c r="H47" t="n">
-        <v>110.5099</v>
+        <v>462.192578</v>
       </c>
       <c r="I47" t="n">
-        <v>15.39</v>
+        <v>11.27</v>
       </c>
       <c r="J47" t="n">
-        <v>19029.5518</v>
+        <v>85371.271051</v>
       </c>
       <c r="K47" t="n">
-        <v>26.54</v>
+        <v>18.29</v>
       </c>
       <c r="L47" t="n">
-        <v>5456.3102</v>
+        <v>21764.530579</v>
       </c>
       <c r="M47" t="n">
-        <v>23.43</v>
-      </c>
-      <c r="N47" t="n">
-        <v>72.85120000000001</v>
-      </c>
-      <c r="O47" t="n">
-        <v>5133.325100000001</v>
-      </c>
-      <c r="P47" t="n">
-        <v>894.6154000000001</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>40.84050000000001</v>
-      </c>
-      <c r="R47" t="n">
-        <v>8966.955800000002</v>
-      </c>
-      <c r="S47" t="n">
-        <v>2866.1639</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>384.4951</v>
+        <v>1825.030308</v>
       </c>
       <c r="C48" t="n">
-        <v>28.43</v>
+        <v>13.02</v>
       </c>
       <c r="D48" t="n">
-        <v>16222.2352</v>
+        <v>60311.952374</v>
       </c>
       <c r="E48" t="n">
-        <v>26.76</v>
+        <v>20.03</v>
       </c>
       <c r="F48" t="n">
-        <v>2289.3064</v>
+        <v>8424.510525</v>
       </c>
       <c r="G48" t="n">
-        <v>17.38</v>
+        <v>18.95</v>
       </c>
       <c r="H48" t="n">
-        <v>148.6174</v>
+        <v>521.121543</v>
       </c>
       <c r="I48" t="n">
-        <v>14.48</v>
+        <v>8.83</v>
       </c>
       <c r="J48" t="n">
-        <v>25718.5767</v>
+        <v>94994.43261600001</v>
       </c>
       <c r="K48" t="n">
-        <v>25.01</v>
+        <v>17.71</v>
       </c>
       <c r="L48" t="n">
-        <v>6822.5399</v>
+        <v>24432.939409</v>
       </c>
       <c r="M48" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="N48" t="n">
-        <v>120.6369</v>
-      </c>
-      <c r="O48" t="n">
-        <v>4847.312699999999</v>
-      </c>
-      <c r="P48" t="n">
-        <v>354.8456999999999</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>38.1075</v>
-      </c>
-      <c r="R48" t="n">
-        <v>6689.0249</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1366.2297</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>514.9802</v>
+        <v>191.007</v>
       </c>
       <c r="C49" t="n">
-        <v>27.59</v>
+        <v>15.33</v>
       </c>
       <c r="D49" t="n">
-        <v>21314.0522</v>
+        <v>6241.5974</v>
       </c>
       <c r="E49" t="n">
-        <v>24.03</v>
+        <v>22.88</v>
       </c>
       <c r="F49" t="n">
-        <v>2921.3322</v>
+        <v>1039.8453</v>
       </c>
       <c r="G49" t="n">
-        <v>14.41</v>
+        <v>15.57</v>
       </c>
       <c r="H49" t="n">
-        <v>191.4689</v>
+        <v>69.6694</v>
       </c>
       <c r="I49" t="n">
-        <v>10.14</v>
+        <v>13.08</v>
       </c>
       <c r="J49" t="n">
-        <v>33892.750056</v>
+        <v>10062.596</v>
       </c>
       <c r="K49" t="n">
-        <v>22.58</v>
+        <v>21.28</v>
       </c>
       <c r="L49" t="n">
-        <v>9142.3853</v>
+        <v>2590.1463</v>
       </c>
       <c r="M49" t="n">
-        <v>21.78</v>
-      </c>
-      <c r="N49" t="n">
-        <v>130.4851</v>
-      </c>
-      <c r="O49" t="n">
-        <v>5091.816999999999</v>
-      </c>
-      <c r="P49" t="n">
-        <v>632.0257999999999</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>42.85149999999999</v>
-      </c>
-      <c r="R49" t="n">
-        <v>8174.173355999996</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2319.8454</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>732.0322</v>
+        <v>263.8582</v>
       </c>
       <c r="C50" t="n">
-        <v>25.96</v>
+        <v>24.77</v>
       </c>
       <c r="D50" t="n">
-        <v>28319.0359</v>
+        <v>11374.9225</v>
       </c>
       <c r="E50" t="n">
-        <v>25.99</v>
+        <v>29.2</v>
       </c>
       <c r="F50" t="n">
-        <v>3695.5659</v>
+        <v>1934.4607</v>
       </c>
       <c r="G50" t="n">
-        <v>12.78</v>
+        <v>20.7</v>
       </c>
       <c r="H50" t="n">
-        <v>239.6816</v>
+        <v>110.5099</v>
       </c>
       <c r="I50" t="n">
-        <v>12.16</v>
+        <v>15.39</v>
       </c>
       <c r="J50" t="n">
-        <v>44197.9526</v>
+        <v>19029.5518</v>
       </c>
       <c r="K50" t="n">
-        <v>23.22</v>
+        <v>26.54</v>
       </c>
       <c r="L50" t="n">
-        <v>11451.3186</v>
+        <v>5456.3102</v>
       </c>
       <c r="M50" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="N50" t="n">
-        <v>217.052</v>
-      </c>
-      <c r="O50" t="n">
-        <v>7004.983700000001</v>
-      </c>
-      <c r="P50" t="n">
-        <v>774.2337000000002</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>48.21270000000001</v>
-      </c>
-      <c r="R50" t="n">
-        <v>10305.202544</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2308.933300000001</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>882.6008</v>
+        <v>384.4951</v>
       </c>
       <c r="C51" t="n">
-        <v>21.86</v>
+        <v>28.43</v>
       </c>
       <c r="D51" t="n">
-        <v>32743.727</v>
+        <v>16222.2352</v>
       </c>
       <c r="E51" t="n">
-        <v>24.61</v>
+        <v>26.76</v>
       </c>
       <c r="F51" t="n">
-        <v>4412.5713</v>
+        <v>2289.3064</v>
       </c>
       <c r="G51" t="n">
-        <v>11.37</v>
+        <v>17.38</v>
       </c>
       <c r="H51" t="n">
-        <v>290.254</v>
+        <v>148.6174</v>
       </c>
       <c r="I51" t="n">
-        <v>10.86</v>
+        <v>14.48</v>
       </c>
       <c r="J51" t="n">
-        <v>51441.3523</v>
+        <v>25718.5767</v>
       </c>
       <c r="K51" t="n">
-        <v>21.42</v>
+        <v>25.01</v>
       </c>
       <c r="L51" t="n">
-        <v>13402.453</v>
+        <v>6822.5399</v>
       </c>
       <c r="M51" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="N51" t="n">
-        <v>150.5686000000001</v>
-      </c>
-      <c r="O51" t="n">
-        <v>4424.6911</v>
-      </c>
-      <c r="P51" t="n">
-        <v>717.0053999999996</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>50.57240000000002</v>
-      </c>
-      <c r="R51" t="n">
-        <v>7243.399700000002</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1951.134399999999</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1035.1603</v>
+        <v>514.9802</v>
       </c>
       <c r="C52" t="n">
-        <v>23.14</v>
+        <v>27.59</v>
       </c>
       <c r="D52" t="n">
-        <v>37950.9806</v>
+        <v>21314.0522</v>
       </c>
       <c r="E52" t="n">
-        <v>23.88</v>
+        <v>24.03</v>
       </c>
       <c r="F52" t="n">
-        <v>5142.399</v>
+        <v>2921.3322</v>
       </c>
       <c r="G52" t="n">
-        <v>9.640000000000001</v>
+        <v>14.41</v>
       </c>
       <c r="H52" t="n">
-        <v>332.2764</v>
+        <v>191.4689</v>
       </c>
       <c r="I52" t="n">
-        <v>10.87</v>
+        <v>10.14</v>
       </c>
       <c r="J52" t="n">
-        <v>59710.0483</v>
+        <v>33892.750056</v>
       </c>
       <c r="K52" t="n">
-        <v>20.76</v>
+        <v>22.58</v>
       </c>
       <c r="L52" t="n">
-        <v>15581.5082</v>
+        <v>9142.3853</v>
       </c>
       <c r="M52" t="n">
-        <v>17.32</v>
-      </c>
-      <c r="N52" t="n">
-        <v>152.5595</v>
-      </c>
-      <c r="O52" t="n">
-        <v>5207.253600000004</v>
-      </c>
-      <c r="P52" t="n">
-        <v>729.8277000000007</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>42.0224</v>
-      </c>
-      <c r="R52" t="n">
-        <v>8268.696000000004</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2179.055200000001</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1226.7412</v>
+        <v>732.0322</v>
       </c>
       <c r="C53" t="n">
-        <v>21.11</v>
+        <v>25.96</v>
       </c>
       <c r="D53" t="n">
-        <v>43979.6796</v>
+        <v>28319.0359</v>
       </c>
       <c r="E53" t="n">
-        <v>23.65</v>
+        <v>25.99</v>
       </c>
       <c r="F53" t="n">
-        <v>5849.7601</v>
+        <v>3695.5659</v>
       </c>
       <c r="G53" t="n">
-        <v>9.6</v>
+        <v>12.78</v>
       </c>
       <c r="H53" t="n">
-        <v>378.6767</v>
+        <v>239.6816</v>
       </c>
       <c r="I53" t="n">
-        <v>11.14</v>
+        <v>12.16</v>
       </c>
       <c r="J53" t="n">
-        <v>69007.2895</v>
+        <v>44197.9526</v>
       </c>
       <c r="K53" t="n">
-        <v>20.5</v>
+        <v>23.22</v>
       </c>
       <c r="L53" t="n">
-        <v>17951.1086</v>
+        <v>11451.3186</v>
       </c>
       <c r="M53" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="N53" t="n">
-        <v>191.5808999999999</v>
-      </c>
-      <c r="O53" t="n">
-        <v>6028.699000000001</v>
-      </c>
-      <c r="P53" t="n">
-        <v>707.3611000000001</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>46.40029999999996</v>
-      </c>
-      <c r="R53" t="n">
-        <v>9297.241199999997</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2369.600399999999</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1487.369986</v>
+        <v>882.6008</v>
       </c>
       <c r="C54" t="n">
-        <v>20.26</v>
+        <v>21.86</v>
       </c>
       <c r="D54" t="n">
-        <v>48860.120364</v>
+        <v>32743.727</v>
       </c>
       <c r="E54" t="n">
-        <v>22.71</v>
+        <v>24.61</v>
       </c>
       <c r="F54" t="n">
-        <v>6641.747435</v>
+        <v>4412.5713</v>
       </c>
       <c r="G54" t="n">
-        <v>7.88</v>
+        <v>11.37</v>
       </c>
       <c r="H54" t="n">
-        <v>417.154558</v>
+        <v>290.254</v>
       </c>
       <c r="I54" t="n">
-        <v>11.21</v>
+        <v>10.86</v>
       </c>
       <c r="J54" t="n">
-        <v>76814.434645</v>
+        <v>51441.3523</v>
       </c>
       <c r="K54" t="n">
-        <v>19.18</v>
+        <v>21.42</v>
       </c>
       <c r="L54" t="n">
-        <v>19825.19686</v>
+        <v>13402.453</v>
       </c>
       <c r="M54" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="N54" t="n">
-        <v>260.628786</v>
-      </c>
-      <c r="O54" t="n">
-        <v>4880.440763999999</v>
-      </c>
-      <c r="P54" t="n">
-        <v>791.9873349999998</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>38.47785800000003</v>
-      </c>
-      <c r="R54" t="n">
-        <v>7807.145145000002</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1874.08826</v>
+        <v>17.54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1648.137619</v>
+        <v>1035.1603</v>
       </c>
       <c r="C55" t="n">
-        <v>19.01</v>
+        <v>23.14</v>
       </c>
       <c r="D55" t="n">
-        <v>54581.885342</v>
+        <v>37950.9806</v>
       </c>
       <c r="E55" t="n">
-        <v>21.23</v>
+        <v>23.88</v>
       </c>
       <c r="F55" t="n">
-        <v>7376.717511</v>
+        <v>5142.399</v>
       </c>
       <c r="G55" t="n">
-        <v>8.83</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>462.192578</v>
+        <v>332.2764</v>
       </c>
       <c r="I55" t="n">
-        <v>11.27</v>
+        <v>10.87</v>
       </c>
       <c r="J55" t="n">
-        <v>85371.271051</v>
+        <v>59710.0483</v>
       </c>
       <c r="K55" t="n">
-        <v>18.29</v>
+        <v>20.76</v>
       </c>
       <c r="L55" t="n">
-        <v>21764.530579</v>
+        <v>15581.5082</v>
       </c>
       <c r="M55" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="N55" t="n">
-        <v>160.7676330000002</v>
-      </c>
-      <c r="O55" t="n">
-        <v>5721.764977999999</v>
-      </c>
-      <c r="P55" t="n">
-        <v>734.9700759999996</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>45.03802000000002</v>
-      </c>
-      <c r="R55" t="n">
-        <v>8556.836406000002</v>
-      </c>
-      <c r="S55" t="n">
-        <v>1939.333718999998</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1825.030308</v>
+        <v>1226.7412</v>
       </c>
       <c r="C56" t="n">
-        <v>13.02</v>
+        <v>21.11</v>
       </c>
       <c r="D56" t="n">
-        <v>60311.952374</v>
+        <v>43979.6796</v>
       </c>
       <c r="E56" t="n">
-        <v>20.03</v>
+        <v>23.65</v>
       </c>
       <c r="F56" t="n">
-        <v>8424.510525</v>
+        <v>5849.7601</v>
       </c>
       <c r="G56" t="n">
-        <v>18.95</v>
+        <v>9.6</v>
       </c>
       <c r="H56" t="n">
-        <v>521.121543</v>
+        <v>378.6767</v>
       </c>
       <c r="I56" t="n">
-        <v>8.83</v>
+        <v>11.14</v>
       </c>
       <c r="J56" t="n">
-        <v>94994.43261600001</v>
+        <v>69007.2895</v>
       </c>
       <c r="K56" t="n">
-        <v>17.71</v>
+        <v>20.5</v>
       </c>
       <c r="L56" t="n">
-        <v>24432.939409</v>
+        <v>17951.1086</v>
       </c>
       <c r="M56" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="N56" t="n">
-        <v>176.892689</v>
-      </c>
-      <c r="O56" t="n">
-        <v>5730.067031999999</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1047.793014</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>58.92896499999995</v>
-      </c>
-      <c r="R56" t="n">
-        <v>9623.161565000002</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2668.40883</v>
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1549.352929</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="D57" t="n">
+        <v>54583.159869</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7344.030973</v>
+      </c>
+      <c r="G57" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="H57" t="n">
+        <v>426.556042</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>84213.743479</v>
+      </c>
+      <c r="K57" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="L57" t="n">
+        <v>20737.199708</v>
+      </c>
+      <c r="M57" t="n">
+        <v>9.640000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1745.423614</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>61534.792996</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8468.678277000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="H58" t="n">
+        <v>472.251232</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="J58" t="n">
+        <v>94671.72521600001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="L58" t="n">
+        <v>22922.830329</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9.609999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2038.40117</v>
+      </c>
+      <c r="C59" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="D59" t="n">
+        <v>70128.379873</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9375.8555</v>
+      </c>
+      <c r="G59" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="H59" t="n">
+        <v>524.067591</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J59" t="n">
+        <v>108125.658911</v>
+      </c>
+      <c r="K59" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="L59" t="n">
+        <v>26583.022368</v>
+      </c>
+      <c r="M59" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>257.286403</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.4382211885</v>
+      </c>
+      <c r="D60" t="n">
+        <v>7702.694184</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.1138768366</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1117.594004</v>
+      </c>
+      <c r="G60" t="n">
+        <v>7.7995750686</v>
+      </c>
+      <c r="H60" t="n">
+        <v>77.50421799999999</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.1147597557</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11791.891665</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.5784764847</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2714.317074</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8.966797206900001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>338.399204</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="D61" t="n">
+        <v>13102.087081</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1522.170115</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H61" t="n">
+        <v>115.927249</v>
+      </c>
+      <c r="I61" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>20059.665453</v>
+      </c>
+      <c r="K61" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5097.009053</v>
+      </c>
+      <c r="M61" t="n">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>441.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="D62" t="n">
+        <v>17999.382879</v>
+      </c>
+      <c r="E62" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2200.377704</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>159.982576</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J62" t="n">
+        <v>27735.313005</v>
+      </c>
+      <c r="K62" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7093.609938</v>
+      </c>
+      <c r="M62" t="n">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>568.212719</v>
+      </c>
+      <c r="C63" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="D63" t="n">
+        <v>23457.341685</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2968.401036</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="H63" t="n">
+        <v>204.132815</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J63" t="n">
+        <v>36183.898971</v>
+      </c>
+      <c r="K63" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9189.943531000001</v>
+      </c>
+      <c r="M63" t="n">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>755.270899</v>
+      </c>
+      <c r="C64" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="D64" t="n">
+        <v>30295.972588</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3787.773451</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="H64" t="n">
+        <v>255.702918</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J64" t="n">
+        <v>46266.288043</v>
+      </c>
+      <c r="K64" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="L64" t="n">
+        <v>11427.271105</v>
+      </c>
+      <c r="M64" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>941.518539</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D65" t="n">
+        <v>35759.510946</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4544.072727</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="H65" t="n">
+        <v>297.650541</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J65" t="n">
+        <v>54560.409457</v>
+      </c>
+      <c r="K65" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="L65" t="n">
+        <v>13315.307245</v>
+      </c>
+      <c r="M65" t="n">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1101.232308</v>
+      </c>
+      <c r="C66" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="D66" t="n">
+        <v>42103.275981</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5327.846509</v>
+      </c>
+      <c r="G66" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="H66" t="n">
+        <v>344.043801</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="J66" t="n">
+        <v>64368.259908</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="L66" t="n">
+        <v>15835.90511</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1269.192213</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4868.0878124</v>
+      </c>
+      <c r="E67" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>6500.355901</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>390.706586</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J67" t="n">
+        <v>74763.45071999999</v>
+      </c>
+      <c r="K67" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="L67" t="n">
+        <v>18313.024482</v>
+      </c>
+      <c r="M67" t="n">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>300.96282</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9434.359025</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1346.880763</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="H68" t="n">
+        <v>78.048903</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>14461.101661</v>
+      </c>
+      <c r="K68" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3378.899053</v>
+      </c>
+      <c r="M68" t="n">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>366.604705</v>
+      </c>
+      <c r="C69" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D69" t="n">
+        <v>15845.162453</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2144.770097</v>
+      </c>
+      <c r="G69" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="H69" t="n">
+        <v>115.40971</v>
+      </c>
+      <c r="I69" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="J69" t="n">
+        <v>24414.86715</v>
+      </c>
+      <c r="K69" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6058.329895</v>
+      </c>
+      <c r="M69" t="n">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>490.85504</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="D70" t="n">
+        <v>21585.835808</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2906.018133</v>
+      </c>
+      <c r="G70" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="H70" t="n">
+        <v>150.011982</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>33166.191859</v>
+      </c>
+      <c r="K70" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8183.482878</v>
+      </c>
+      <c r="M70" t="n">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>634.83842</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D71" t="n">
+        <v>28455.944882</v>
+      </c>
+      <c r="E71" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3737.740624</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="H71" t="n">
+        <v>189.021086</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-3.66</v>
+      </c>
+      <c r="J71" t="n">
+        <v>43238.154845</v>
+      </c>
+      <c r="K71" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>10409.630919</v>
+      </c>
+      <c r="M71" t="n">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>856.428955</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="D72" t="n">
+        <v>36687.259729</v>
+      </c>
+      <c r="E72" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4666.895116</v>
+      </c>
+      <c r="G72" t="n">
+        <v>14</v>
+      </c>
+      <c r="H72" t="n">
+        <v>241.755794</v>
+      </c>
+      <c r="I72" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="J72" t="n">
+        <v>55169.54702</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="L72" t="n">
+        <v>12958.96322</v>
+      </c>
+      <c r="M72" t="n">
+        <v>11.73</v>
       </c>
     </row>
   </sheetData>
